--- a/Documentation/LH Channel _ Patch list 2025 - Wing.xlsx
+++ b/Documentation/LH Channel _ Patch list 2025 - Wing.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="878" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="878" uniqueCount="293">
   <si>
     <t>Channel</t>
   </si>
@@ -90,6 +90,12 @@
     <t>Pre</t>
   </si>
   <si>
+    <t>Local 1-2</t>
+  </si>
+  <si>
+    <t>Stereo</t>
+  </si>
+  <si>
     <t>Drums L</t>
   </si>
   <si>
@@ -129,6 +135,9 @@
     <t>Bass</t>
   </si>
   <si>
+    <t>Local 3-4</t>
+  </si>
+  <si>
     <t>Drums R</t>
   </si>
   <si>
@@ -162,196 +171,196 @@
     <t>Electric</t>
   </si>
   <si>
+    <t>AES C 1-2</t>
+  </si>
+  <si>
+    <t>Bus 2 L</t>
+  </si>
+  <si>
+    <t>Vocals Mix L</t>
+  </si>
+  <si>
+    <t>Acoustic 1</t>
+  </si>
+  <si>
+    <t>Acoustic L</t>
+  </si>
+  <si>
+    <t>Bus 4 L</t>
+  </si>
+  <si>
+    <t>Drums Track</t>
+  </si>
+  <si>
+    <t>Snare Bottom</t>
+  </si>
+  <si>
+    <t>Local 4</t>
+  </si>
+  <si>
+    <t>Bus 4</t>
+  </si>
+  <si>
+    <t>Acoustic</t>
+  </si>
+  <si>
+    <t>AES C 3-4</t>
+  </si>
+  <si>
+    <t>Bus 2 R</t>
+  </si>
+  <si>
+    <t>Vocals Mix R</t>
+  </si>
+  <si>
+    <t>Acoustic 2</t>
+  </si>
+  <si>
+    <t>Acoustic R</t>
+  </si>
+  <si>
+    <t>Bus 4 R</t>
+  </si>
+  <si>
+    <t>Tom 1</t>
+  </si>
+  <si>
+    <t>Local 5</t>
+  </si>
+  <si>
+    <t>Bus 5</t>
+  </si>
+  <si>
+    <t>Keys</t>
+  </si>
+  <si>
+    <t>AES C 5-6</t>
+  </si>
+  <si>
+    <t>FOH TB</t>
+  </si>
+  <si>
+    <t>Keys L</t>
+  </si>
+  <si>
+    <t>Bus 5 L</t>
+  </si>
+  <si>
+    <t>Bass Track</t>
+  </si>
+  <si>
+    <t>Floor Tom</t>
+  </si>
+  <si>
+    <t>Local 6</t>
+  </si>
+  <si>
+    <t>Bus 6</t>
+  </si>
+  <si>
+    <t>Keys R</t>
+  </si>
+  <si>
+    <t>Bus 5 R</t>
+  </si>
+  <si>
+    <t>Hi Hat</t>
+  </si>
+  <si>
+    <t>Local 7</t>
+  </si>
+  <si>
+    <t>Bus 7</t>
+  </si>
+  <si>
+    <t>Front Fill</t>
+  </si>
+  <si>
+    <t>Matrix 7</t>
+  </si>
+  <si>
+    <t>Electric Track</t>
+  </si>
+  <si>
+    <t>OH</t>
+  </si>
+  <si>
+    <t>Local 8</t>
+  </si>
+  <si>
+    <t>Bus 8</t>
+  </si>
+  <si>
+    <t>Subwoofer</t>
+  </si>
+  <si>
+    <t>Matrix 8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Local 9 </t>
+  </si>
+  <si>
+    <t>Bus 9</t>
+  </si>
+  <si>
+    <t>Red</t>
+  </si>
+  <si>
+    <t>AES A 45</t>
+  </si>
+  <si>
+    <t>PA L</t>
+  </si>
+  <si>
+    <t>Local 9</t>
+  </si>
+  <si>
+    <t>Acoustic Track</t>
+  </si>
+  <si>
+    <t>Bus 10</t>
+  </si>
+  <si>
+    <t>Green</t>
+  </si>
+  <si>
+    <t>AES A 46</t>
+  </si>
+  <si>
+    <t>PA R</t>
+  </si>
+  <si>
+    <t>AES C 3</t>
+  </si>
+  <si>
+    <t>Bus 11</t>
+  </si>
+  <si>
+    <t>AES A 47</t>
+  </si>
+  <si>
+    <t>Electric 1 R</t>
+  </si>
+  <si>
     <t>AES C 1</t>
   </si>
   <si>
-    <t>Bus 2 L</t>
-  </si>
-  <si>
-    <t>Vocals Mix L</t>
-  </si>
-  <si>
-    <t>Acoustic 1</t>
-  </si>
-  <si>
-    <t>Acoustic L</t>
-  </si>
-  <si>
-    <t>Bus 4 L</t>
-  </si>
-  <si>
-    <t>Drums Track</t>
-  </si>
-  <si>
-    <t>Snare Bottom</t>
-  </si>
-  <si>
-    <t>Local 4</t>
-  </si>
-  <si>
-    <t>Bus 4</t>
-  </si>
-  <si>
-    <t>Acoustic</t>
+    <t>Keys Track</t>
+  </si>
+  <si>
+    <t>AES C 4</t>
+  </si>
+  <si>
+    <t>Bus 12</t>
+  </si>
+  <si>
+    <t>AES A 48</t>
+  </si>
+  <si>
+    <t>Sub</t>
   </si>
   <si>
     <t>AES C 2</t>
-  </si>
-  <si>
-    <t>Bus 2 R</t>
-  </si>
-  <si>
-    <t>Vocals Mix R</t>
-  </si>
-  <si>
-    <t>Acoustic 2</t>
-  </si>
-  <si>
-    <t>Acoustic R</t>
-  </si>
-  <si>
-    <t>Bus 4 R</t>
-  </si>
-  <si>
-    <t>Tom 1</t>
-  </si>
-  <si>
-    <t>Local 5</t>
-  </si>
-  <si>
-    <t>Bus 5</t>
-  </si>
-  <si>
-    <t>Keys</t>
-  </si>
-  <si>
-    <t>AES C 3</t>
-  </si>
-  <si>
-    <t>FOH TB</t>
-  </si>
-  <si>
-    <t>Keys L</t>
-  </si>
-  <si>
-    <t>Bus 5 L</t>
-  </si>
-  <si>
-    <t>Bass Track</t>
-  </si>
-  <si>
-    <t>Floor Tom</t>
-  </si>
-  <si>
-    <t>Local 6</t>
-  </si>
-  <si>
-    <t>Bus 6</t>
-  </si>
-  <si>
-    <t>Keys R</t>
-  </si>
-  <si>
-    <t>Bus 5 R</t>
-  </si>
-  <si>
-    <t>Hi Hat</t>
-  </si>
-  <si>
-    <t>Local 7</t>
-  </si>
-  <si>
-    <t>Bus 7</t>
-  </si>
-  <si>
-    <t>Front Fill</t>
-  </si>
-  <si>
-    <t>Matrix 7</t>
-  </si>
-  <si>
-    <t>Electric Track</t>
-  </si>
-  <si>
-    <t>OH</t>
-  </si>
-  <si>
-    <t>Local 8</t>
-  </si>
-  <si>
-    <t>Bus 8</t>
-  </si>
-  <si>
-    <t>Subwoofer</t>
-  </si>
-  <si>
-    <t>Matrix 8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Local 9 </t>
-  </si>
-  <si>
-    <t>Stereo</t>
-  </si>
-  <si>
-    <t>Bus 9</t>
-  </si>
-  <si>
-    <t>Red</t>
-  </si>
-  <si>
-    <t>AES A 45</t>
-  </si>
-  <si>
-    <t>PA L</t>
-  </si>
-  <si>
-    <t>Local 9</t>
-  </si>
-  <si>
-    <t>Acoustic Track</t>
-  </si>
-  <si>
-    <t>AES C 1-2</t>
-  </si>
-  <si>
-    <t>Bus 10</t>
-  </si>
-  <si>
-    <t>Green</t>
-  </si>
-  <si>
-    <t>AES A 46</t>
-  </si>
-  <si>
-    <t>PA R</t>
-  </si>
-  <si>
-    <t>Bus 11</t>
-  </si>
-  <si>
-    <t>AES A 47</t>
-  </si>
-  <si>
-    <t>Electric 1 R</t>
-  </si>
-  <si>
-    <t>Keys Track</t>
-  </si>
-  <si>
-    <t>AES C 4</t>
-  </si>
-  <si>
-    <t>Bus 12</t>
-  </si>
-  <si>
-    <t>AES A 48</t>
-  </si>
-  <si>
-    <t>Sub</t>
-  </si>
-  <si>
-    <t>AES C 5-6</t>
   </si>
   <si>
     <t>Bus 13</t>
@@ -913,7 +922,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="23">
+  <fills count="24">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1046,6 +1055,12 @@
         <bgColor rgb="FFEEF7E3"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB6D7A8"/>
+        <bgColor rgb="FFB6D7A8"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="5">
     <border/>
@@ -1097,7 +1112,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="73">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1236,27 +1251,30 @@
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="1" fillId="23" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
+    <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="4" fillId="17" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="4" fillId="17" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="4" fillId="18" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="5">
     <dxf>
       <font/>
       <fill>
@@ -1268,8 +1286,8 @@
       <font/>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFE7F9EF"/>
-          <bgColor rgb="FFE7F9EF"/>
+          <fgColor rgb="FF63D297"/>
+          <bgColor rgb="FF63D297"/>
         </patternFill>
       </fill>
       <border/>
@@ -1288,8 +1306,8 @@
       <font/>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFDDF2F0"/>
-          <bgColor rgb="FFDDF2F0"/>
+          <fgColor rgb="FFE7F9EF"/>
+          <bgColor rgb="FFE7F9EF"/>
         </patternFill>
       </fill>
       <border/>
@@ -1298,47 +1316,26 @@
       <font/>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFE8F0FE"/>
-          <bgColor rgb="FFE8F0FE"/>
-        </patternFill>
-      </fill>
-      <border/>
-    </dxf>
-    <dxf>
-      <font/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFE8E7FC"/>
-          <bgColor rgb="FFE8E7FC"/>
+          <fgColor rgb="FFFFE6DD"/>
+          <bgColor rgb="FFFFE6DD"/>
         </patternFill>
       </fill>
       <border/>
     </dxf>
   </dxfs>
-  <tableStyles count="6">
-    <tableStyle count="2" pivot="0" name="Patch list-style">
-      <tableStyleElement dxfId="1" type="firstRowStripe"/>
-      <tableStyleElement dxfId="2" type="secondRowStripe"/>
+  <tableStyles count="3">
+    <tableStyle count="3" pivot="0" name="Patch list-style">
+      <tableStyleElement dxfId="1" type="headerRow"/>
+      <tableStyleElement dxfId="2" type="firstRowStripe"/>
+      <tableStyleElement dxfId="3" type="secondRowStripe"/>
     </tableStyle>
     <tableStyle count="2" pivot="0" name="Patch list-style 2">
-      <tableStyleElement dxfId="3" type="firstRowStripe"/>
+      <tableStyleElement dxfId="4" type="firstRowStripe"/>
       <tableStyleElement dxfId="2" type="secondRowStripe"/>
     </tableStyle>
     <tableStyle count="2" pivot="0" name="Patch list-style 3">
-      <tableStyleElement dxfId="4" type="firstRowStripe"/>
-      <tableStyleElement dxfId="2" type="secondRowStripe"/>
-    </tableStyle>
-    <tableStyle count="2" pivot="0" name="Patch list-style 4">
-      <tableStyleElement dxfId="5" type="firstRowStripe"/>
-      <tableStyleElement dxfId="2" type="secondRowStripe"/>
-    </tableStyle>
-    <tableStyle count="2" pivot="0" name="Patch list-style 5">
-      <tableStyleElement dxfId="1" type="firstRowStripe"/>
-      <tableStyleElement dxfId="2" type="secondRowStripe"/>
-    </tableStyle>
-    <tableStyle count="2" pivot="0" name="Patch list-style 6">
-      <tableStyleElement dxfId="3" type="firstRowStripe"/>
-      <tableStyleElement dxfId="2" type="secondRowStripe"/>
+      <tableStyleElement dxfId="2" type="firstRowStripe"/>
+      <tableStyleElement dxfId="3" type="secondRowStripe"/>
     </tableStyle>
   </tableStyles>
 </styleSheet>
@@ -1357,56 +1354,34 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="B3:B26" displayName="Table_1" name="Table_1" id="1">
-  <tableColumns count="1">
-    <tableColumn name="Column1" id="1"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A2:D11" displayName="Table_1" name="Table_1" id="1">
+  <tableColumns count="4">
+    <tableColumn name="Input" id="1"/>
+    <tableColumn name="Source" id="2"/>
+    <tableColumn name="Output" id="3"/>
+    <tableColumn name="Destination" id="4"/>
   </tableColumns>
   <tableStyleInfo name="Patch list-style" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="D3:D11" displayName="Table_2" name="Table_2" id="2">
-  <tableColumns count="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="G11:H18" displayName="Table_2" name="Table_2" id="2">
+  <tableColumns count="2">
     <tableColumn name="Column1" id="1"/>
+    <tableColumn name="Column2" id="2"/>
   </tableColumns>
   <tableStyleInfo name="Patch list-style 2" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="H3:H8" displayName="Table_3" name="Table_3" id="3">
-  <tableColumns count="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="A12:B26" displayName="Table_3" name="Table_3" id="3">
+  <tableColumns count="2">
     <tableColumn name="Column1" id="1"/>
+    <tableColumn name="Column2" id="2"/>
   </tableColumns>
   <tableStyleInfo name="Patch list-style 3" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
-</table>
-</file>
-
-<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="J3:J5" displayName="Table_4" name="Table_4" id="4">
-  <tableColumns count="1">
-    <tableColumn name="Column1" id="1"/>
-  </tableColumns>
-  <tableStyleInfo name="Patch list-style 4" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
-</table>
-</file>
-
-<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="N3:N18" displayName="Table_5" name="Table_5" id="5">
-  <tableColumns count="1">
-    <tableColumn name="Column1" id="1"/>
-  </tableColumns>
-  <tableStyleInfo name="Patch list-style 5" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
-</table>
-</file>
-
-<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="P3:P12" displayName="Table_6" name="Table_6" id="6">
-  <tableColumns count="1">
-    <tableColumn name="Column1" id="1"/>
-  </tableColumns>
-  <tableStyleInfo name="Patch list-style 6" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
 </table>
 </file>
 
@@ -1802,10 +1777,10 @@
         <v>24</v>
       </c>
       <c r="H3" s="28" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="I3" s="28" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="J3" s="29">
         <v>1.0</v>
@@ -1817,16 +1792,16 @@
         <v>1.0</v>
       </c>
       <c r="M3" s="30" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="N3" s="30" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="O3" s="31">
         <v>1.0</v>
       </c>
       <c r="P3" s="31" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="Q3" s="32">
         <v>1.0</v>
@@ -1841,22 +1816,22 @@
         <v>1.0</v>
       </c>
       <c r="U3" s="28" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="V3" s="33">
         <v>1.0</v>
       </c>
       <c r="W3" s="34" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="X3" s="34" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="Y3" s="35">
         <v>1.0</v>
       </c>
       <c r="Z3" s="35" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="AA3" s="35">
         <v>1.0</v>
@@ -1866,10 +1841,10 @@
         <v>1.0</v>
       </c>
       <c r="AD3" s="37" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AE3" s="37" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4">
@@ -1877,79 +1852,79 @@
         <v>2.0</v>
       </c>
       <c r="B4" s="38" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C4" s="25" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D4" s="25" t="s">
         <v>21</v>
       </c>
       <c r="E4" s="25" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F4" s="25" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G4" s="25" t="s">
         <v>24</v>
       </c>
       <c r="H4" s="25" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="I4" s="25" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="J4" s="25">
         <v>2.0</v>
       </c>
       <c r="K4" s="25" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="L4" s="25">
         <v>2.0</v>
       </c>
       <c r="M4" s="25" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="N4" s="25" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="O4" s="25">
         <v>2.0</v>
       </c>
       <c r="P4" s="25" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="Q4" s="25">
         <v>2.0</v>
       </c>
       <c r="R4" s="25" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="S4" s="25" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="T4" s="25">
         <v>2.0</v>
       </c>
       <c r="U4" s="25" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="V4" s="25">
         <v>2.0</v>
       </c>
       <c r="W4" s="39" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="X4" s="39" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="Y4" s="25">
         <v>2.0</v>
       </c>
       <c r="Z4" s="25" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="AA4" s="25">
         <v>2.0</v>
@@ -1959,10 +1934,10 @@
         <v>2.0</v>
       </c>
       <c r="AD4" s="25" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AE4" s="25" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5">
@@ -1970,79 +1945,79 @@
         <v>3.0</v>
       </c>
       <c r="B5" s="27" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C5" s="27" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D5" s="27" t="s">
         <v>21</v>
       </c>
       <c r="E5" s="28" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="F5" s="28" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="G5" s="28" t="s">
         <v>24</v>
       </c>
       <c r="H5" s="28" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="I5" s="28" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="J5" s="29">
         <v>3.0</v>
       </c>
       <c r="K5" s="29" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="L5" s="30">
         <v>3.0</v>
       </c>
       <c r="M5" s="30" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="N5" s="30" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="O5" s="31">
         <v>3.0</v>
       </c>
       <c r="P5" s="31" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="Q5" s="32">
         <v>3.0</v>
       </c>
       <c r="R5" s="32" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="S5" s="32" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="T5" s="28">
         <v>3.0</v>
       </c>
       <c r="U5" s="28" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="V5" s="33">
         <v>3.0</v>
       </c>
       <c r="W5" s="34" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="X5" s="34" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="Y5" s="35">
         <v>3.0</v>
       </c>
       <c r="Z5" s="35" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AA5" s="35">
         <v>3.0</v>
@@ -2054,79 +2029,79 @@
         <v>4.0</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D6" s="25" t="s">
         <v>21</v>
       </c>
       <c r="E6" s="25" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="F6" s="25" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="G6" s="25" t="s">
         <v>24</v>
       </c>
       <c r="H6" s="25" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="I6" s="25" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="J6" s="25">
         <v>4.0</v>
       </c>
       <c r="K6" s="25" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="L6" s="25">
         <v>4.0</v>
       </c>
       <c r="M6" s="25" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="N6" s="25" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="O6" s="25">
         <v>4.0</v>
       </c>
       <c r="P6" s="25" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="Q6" s="25">
         <v>4.0</v>
       </c>
       <c r="R6" s="25" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="S6" s="25" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="T6" s="25">
         <v>4.0</v>
       </c>
       <c r="U6" s="25" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="V6" s="25">
         <v>4.0</v>
       </c>
       <c r="W6" s="39" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="X6" s="39" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="Y6" s="25">
         <v>4.0</v>
       </c>
       <c r="Z6" s="25" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AA6" s="25">
         <v>4.0</v>
@@ -2138,34 +2113,34 @@
         <v>5.0</v>
       </c>
       <c r="B7" s="27" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C7" s="27" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D7" s="27" t="s">
         <v>21</v>
       </c>
       <c r="E7" s="28" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="F7" s="28" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="G7" s="28" t="s">
         <v>24</v>
       </c>
       <c r="H7" s="28" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="I7" s="28" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="J7" s="29">
         <v>5.0</v>
       </c>
       <c r="K7" s="29" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="L7" s="30">
         <v>5.0</v>
@@ -2176,37 +2151,37 @@
         <v>5.0</v>
       </c>
       <c r="P7" s="31" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="Q7" s="32">
         <v>5.0</v>
       </c>
       <c r="R7" s="32" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="S7" s="32" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="T7" s="28">
         <v>5.0</v>
       </c>
       <c r="U7" s="28" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="V7" s="33">
         <v>5.0</v>
       </c>
       <c r="W7" s="34" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="X7" s="34" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Y7" s="35">
         <v>5.0</v>
       </c>
       <c r="Z7" s="35" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="AA7" s="35">
         <v>5.0</v>
@@ -2218,16 +2193,16 @@
         <v>6.0</v>
       </c>
       <c r="B8" s="25" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="D8" s="25" t="s">
         <v>21</v>
       </c>
       <c r="E8" s="25" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="F8" s="42"/>
       <c r="G8" s="42"/>
@@ -2237,7 +2212,7 @@
         <v>6.0</v>
       </c>
       <c r="K8" s="25" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="L8" s="25">
         <v>6.0</v>
@@ -2252,31 +2227,31 @@
         <v>6.0</v>
       </c>
       <c r="R8" s="25" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="S8" s="25" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="T8" s="25">
         <v>6.0</v>
       </c>
       <c r="U8" s="25" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="V8" s="25">
         <v>6.0</v>
       </c>
       <c r="W8" s="39" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="X8" s="39" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="Y8" s="25">
         <v>6.0</v>
       </c>
       <c r="Z8" s="25" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="AA8" s="25">
         <v>6.0</v>
@@ -2288,16 +2263,16 @@
         <v>7.0</v>
       </c>
       <c r="B9" s="27" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C9" s="27" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D9" s="27" t="s">
         <v>21</v>
       </c>
       <c r="E9" s="28" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="F9" s="43"/>
       <c r="G9" s="43"/>
@@ -2307,16 +2282,16 @@
         <v>7.0</v>
       </c>
       <c r="K9" s="29" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="L9" s="30">
         <v>7.0</v>
       </c>
       <c r="M9" s="30" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="N9" s="30" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="O9" s="31">
         <v>7.0</v>
@@ -2326,10 +2301,10 @@
         <v>7.0</v>
       </c>
       <c r="R9" s="32" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="S9" s="32" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="T9" s="28">
         <v>7.0</v>
@@ -2344,7 +2319,7 @@
         <v>7.0</v>
       </c>
       <c r="Z9" s="35" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AA9" s="35">
         <v>7.0</v>
@@ -2356,16 +2331,16 @@
         <v>8.0</v>
       </c>
       <c r="B10" s="25" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C10" s="25" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D10" s="25" t="s">
         <v>21</v>
       </c>
       <c r="E10" s="25" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="F10" s="42"/>
       <c r="G10" s="42"/>
@@ -2375,16 +2350,16 @@
         <v>8.0</v>
       </c>
       <c r="K10" s="25" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="L10" s="25">
         <v>8.0</v>
       </c>
       <c r="M10" s="25" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="N10" s="25" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="O10" s="25">
         <v>8.0</v>
@@ -2394,10 +2369,10 @@
         <v>8.0</v>
       </c>
       <c r="R10" s="25" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="S10" s="25" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="T10" s="25">
         <v>8.0</v>
@@ -2412,7 +2387,7 @@
         <v>8.0</v>
       </c>
       <c r="Z10" s="25" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AA10" s="25">
         <v>8.0</v>
@@ -2424,25 +2399,25 @@
         <v>9.0</v>
       </c>
       <c r="B11" s="27" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C11" s="47" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="D11" s="27" t="s">
-        <v>92</v>
+        <v>26</v>
       </c>
       <c r="E11" s="28" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F11" s="28" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="G11" s="28" t="s">
         <v>24</v>
       </c>
       <c r="H11" s="28" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="I11" s="28" t="s">
         <v>21</v>
@@ -2451,22 +2426,22 @@
         <v>9.0</v>
       </c>
       <c r="K11" s="29" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="O11" s="31">
         <v>9.0</v>
       </c>
       <c r="P11" s="31" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="Q11" s="32">
         <v>9.0</v>
       </c>
       <c r="R11" s="32" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="S11" s="32" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="T11" s="28">
         <v>9.0</v>
@@ -2476,7 +2451,7 @@
         <v>9.0</v>
       </c>
       <c r="Z11" s="35" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="AA11" s="35">
         <v>9.0</v>
@@ -2488,25 +2463,25 @@
         <v>10.0</v>
       </c>
       <c r="B12" s="25" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C12" s="25" t="s">
-        <v>99</v>
+        <v>52</v>
       </c>
       <c r="D12" s="25" t="s">
         <v>21</v>
       </c>
       <c r="E12" s="25" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F12" s="25" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G12" s="25" t="s">
         <v>24</v>
       </c>
       <c r="H12" s="25" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="I12" s="25" t="s">
         <v>21</v>
@@ -2519,7 +2494,7 @@
         <v>10.0</v>
       </c>
       <c r="P12" s="25" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="Q12" s="25">
         <v>10.0</v>
@@ -2534,7 +2509,7 @@
         <v>10.0</v>
       </c>
       <c r="Z12" s="25" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="AA12" s="25">
         <v>10.0</v>
@@ -2546,25 +2521,25 @@
         <v>11.0</v>
       </c>
       <c r="B13" s="27" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C13" s="27" t="s">
-        <v>70</v>
+        <v>105</v>
       </c>
       <c r="D13" s="27" t="s">
         <v>21</v>
       </c>
       <c r="E13" s="28" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F13" s="28" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G13" s="28" t="s">
         <v>24</v>
       </c>
       <c r="H13" s="28" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="I13" s="28" t="s">
         <v>21</v>
@@ -2577,16 +2552,16 @@
         <v>11.0</v>
       </c>
       <c r="P13" s="31" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="Q13" s="32">
         <v>11.0</v>
       </c>
       <c r="R13" s="32" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="S13" s="32" t="s">
-        <v>49</v>
+        <v>109</v>
       </c>
       <c r="T13" s="28">
         <v>11.0</v>
@@ -2596,7 +2571,7 @@
         <v>11.0</v>
       </c>
       <c r="Z13" s="35" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="AA13" s="35">
         <v>11.0</v>
@@ -2608,25 +2583,25 @@
         <v>12.0</v>
       </c>
       <c r="B14" s="25" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C14" s="25" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="D14" s="25" t="s">
         <v>21</v>
       </c>
       <c r="E14" s="25" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="F14" s="25" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G14" s="25" t="s">
         <v>24</v>
       </c>
       <c r="H14" s="25" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="I14" s="25" t="s">
         <v>21</v>
@@ -2639,16 +2614,16 @@
         <v>12.0</v>
       </c>
       <c r="P14" s="25" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="Q14" s="25">
         <v>12.0</v>
       </c>
       <c r="R14" s="25" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="S14" s="25" t="s">
-        <v>60</v>
+        <v>115</v>
       </c>
       <c r="T14" s="25">
         <v>12.0</v>
@@ -2658,7 +2633,7 @@
         <v>12.0</v>
       </c>
       <c r="Z14" s="25" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="AA14" s="25">
         <v>12.0</v>
@@ -2670,16 +2645,16 @@
         <v>13.0</v>
       </c>
       <c r="B15" s="27" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C15" s="27" t="s">
-        <v>112</v>
+        <v>73</v>
       </c>
       <c r="D15" s="27" t="s">
-        <v>92</v>
+        <v>26</v>
       </c>
       <c r="E15" s="28" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="F15" s="43"/>
       <c r="G15" s="43"/>
@@ -2693,16 +2668,16 @@
         <v>13.0</v>
       </c>
       <c r="P15" s="31" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="Q15" s="32">
         <v>13.0</v>
       </c>
       <c r="R15" s="32" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="S15" s="32" t="s">
-        <v>70</v>
+        <v>105</v>
       </c>
       <c r="T15" s="28">
         <v>13.0</v>
@@ -2712,7 +2687,7 @@
         <v>13.0</v>
       </c>
       <c r="Z15" s="35" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="AA15" s="35">
         <v>13.0</v>
@@ -2724,16 +2699,16 @@
         <v>14.0</v>
       </c>
       <c r="B16" s="25" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C16" s="25" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="D16" s="25" t="s">
-        <v>92</v>
+        <v>26</v>
       </c>
       <c r="E16" s="25" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="F16" s="40"/>
       <c r="G16" s="40"/>
@@ -2747,16 +2722,16 @@
         <v>14.0</v>
       </c>
       <c r="P16" s="25" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="Q16" s="25">
         <v>14.0</v>
       </c>
       <c r="R16" s="25" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="S16" s="25" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="T16" s="25">
         <v>14.0</v>
@@ -2766,7 +2741,7 @@
         <v>14.0</v>
       </c>
       <c r="Z16" s="25" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="AA16" s="25">
         <v>14.0</v>
@@ -2781,17 +2756,17 @@
       <c r="C17" s="49"/>
       <c r="D17" s="49"/>
       <c r="E17" s="28" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="F17" s="28" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="G17" s="28" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="H17" s="45"/>
       <c r="I17" s="28" t="s">
-        <v>92</v>
+        <v>26</v>
       </c>
       <c r="J17" s="29">
         <v>15.0</v>
@@ -2801,16 +2776,16 @@
         <v>15.0</v>
       </c>
       <c r="P17" s="31" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="Q17" s="32">
         <v>15.0</v>
       </c>
       <c r="R17" s="32" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="S17" s="32" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="T17" s="28">
         <v>15.0</v>
@@ -2820,7 +2795,7 @@
         <v>15.0</v>
       </c>
       <c r="Z17" s="35" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="AA17" s="35">
         <v>15.0</v>
@@ -2835,17 +2810,17 @@
       <c r="C18" s="40"/>
       <c r="D18" s="40"/>
       <c r="E18" s="25" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="F18" s="25" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="G18" s="25" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="H18" s="40"/>
       <c r="I18" s="25" t="s">
-        <v>92</v>
+        <v>26</v>
       </c>
       <c r="J18" s="25">
         <v>16.0</v>
@@ -2855,16 +2830,16 @@
         <v>16.0</v>
       </c>
       <c r="P18" s="25" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="Q18" s="25">
         <v>16.0</v>
       </c>
       <c r="R18" s="38" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="S18" s="25" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="T18" s="25">
         <v>16.0</v>
@@ -2874,7 +2849,7 @@
         <v>16.0</v>
       </c>
       <c r="Z18" s="25" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="AA18" s="25">
         <v>16.0</v>
@@ -2889,7 +2864,7 @@
       <c r="C19" s="49"/>
       <c r="D19" s="49"/>
       <c r="E19" s="28" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="F19" s="45"/>
       <c r="G19" s="45"/>
@@ -2907,16 +2882,16 @@
         <v>17.0</v>
       </c>
       <c r="R19" s="32" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="S19" s="32" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="Y19" s="35">
         <v>17.0</v>
       </c>
       <c r="Z19" s="35" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="AA19" s="35">
         <v>17.0</v>
@@ -2928,14 +2903,14 @@
         <v>18.0</v>
       </c>
       <c r="B20" s="25" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="C20" s="25" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="D20" s="40"/>
       <c r="E20" s="25" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="F20" s="40"/>
       <c r="G20" s="40"/>
@@ -2953,16 +2928,16 @@
         <v>18.0</v>
       </c>
       <c r="R20" s="25" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="S20" s="25" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="Y20" s="25">
         <v>18.0</v>
       </c>
       <c r="Z20" s="25" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="AA20" s="25">
         <v>18.0</v>
@@ -2974,14 +2949,14 @@
         <v>19.0</v>
       </c>
       <c r="B21" s="27" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C21" s="27" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="D21" s="49"/>
       <c r="E21" s="28" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="F21" s="45"/>
       <c r="G21" s="45"/>
@@ -2999,16 +2974,16 @@
         <v>19.0</v>
       </c>
       <c r="R21" s="32" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="S21" s="32" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="Y21" s="35">
         <v>19.0</v>
       </c>
       <c r="Z21" s="35" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="AA21" s="35">
         <v>19.0</v>
@@ -3020,14 +2995,14 @@
         <v>20.0</v>
       </c>
       <c r="B22" s="25" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C22" s="25" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="D22" s="40"/>
       <c r="E22" s="25" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="F22" s="40"/>
       <c r="G22" s="40"/>
@@ -3037,7 +3012,7 @@
         <v>20.0</v>
       </c>
       <c r="K22" s="25" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="O22" s="25">
         <v>20.0</v>
@@ -3047,16 +3022,16 @@
         <v>20.0</v>
       </c>
       <c r="R22" s="25" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="S22" s="25" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="Y22" s="25">
         <v>20.0</v>
       </c>
       <c r="Z22" s="25" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="AA22" s="25">
         <v>20.0</v>
@@ -3068,14 +3043,14 @@
         <v>21.0</v>
       </c>
       <c r="B23" s="27" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C23" s="27" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="D23" s="49"/>
       <c r="E23" s="28" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="F23" s="45"/>
       <c r="G23" s="45"/>
@@ -3085,7 +3060,7 @@
         <v>21.0</v>
       </c>
       <c r="K23" s="29" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="O23" s="31">
         <v>21.0</v>
@@ -3095,10 +3070,10 @@
         <v>21.0</v>
       </c>
       <c r="R23" s="32" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="S23" s="32" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="Y23" s="35">
         <v>21.0</v>
@@ -3114,14 +3089,14 @@
         <v>22.0</v>
       </c>
       <c r="B24" s="25" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C24" s="25" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="D24" s="40"/>
       <c r="E24" s="25" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="F24" s="40"/>
       <c r="G24" s="40"/>
@@ -3131,7 +3106,7 @@
         <v>22.0</v>
       </c>
       <c r="K24" s="25" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="O24" s="25">
         <v>22.0</v>
@@ -3141,10 +3116,10 @@
         <v>22.0</v>
       </c>
       <c r="R24" s="25" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="S24" s="25" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="Y24" s="25">
         <v>22.0</v>
@@ -3160,14 +3135,14 @@
         <v>23.0</v>
       </c>
       <c r="B25" s="27" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C25" s="27" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="D25" s="49"/>
       <c r="E25" s="28" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="F25" s="45"/>
       <c r="G25" s="45"/>
@@ -3177,7 +3152,7 @@
         <v>23.0</v>
       </c>
       <c r="K25" s="29" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="O25" s="31">
         <v>23.0</v>
@@ -3205,7 +3180,7 @@
       <c r="C26" s="40"/>
       <c r="D26" s="40"/>
       <c r="E26" s="25" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="F26" s="40"/>
       <c r="G26" s="40"/>
@@ -3215,7 +3190,7 @@
         <v>24.0</v>
       </c>
       <c r="K26" s="25" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="O26" s="25">
         <v>24.0</v>
@@ -3225,10 +3200,10 @@
         <v>24.0</v>
       </c>
       <c r="R26" s="25" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="S26" s="25" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="Y26" s="25">
         <v>24.0</v>
@@ -3247,7 +3222,7 @@
       <c r="C27" s="49"/>
       <c r="D27" s="49"/>
       <c r="E27" s="28" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="F27" s="45"/>
       <c r="G27" s="45"/>
@@ -3261,10 +3236,10 @@
         <v>25.0</v>
       </c>
       <c r="R27" s="32" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="S27" s="32" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="Y27" s="35">
         <v>25.0</v>
@@ -3283,19 +3258,19 @@
       <c r="C28" s="40"/>
       <c r="D28" s="40"/>
       <c r="E28" s="25" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="F28" s="25" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="G28" s="25" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="H28" s="25" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="I28" s="25" t="s">
-        <v>92</v>
+        <v>26</v>
       </c>
       <c r="O28" s="25">
         <v>26.0</v>
@@ -3305,10 +3280,10 @@
         <v>26.0</v>
       </c>
       <c r="R28" s="25" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="S28" s="25" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="Y28" s="25">
         <v>26.0</v>
@@ -3327,16 +3302,16 @@
       <c r="C29" s="49"/>
       <c r="D29" s="49"/>
       <c r="E29" s="28" t="s">
+        <v>165</v>
+      </c>
+      <c r="F29" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="G29" s="28" t="s">
         <v>162</v>
       </c>
-      <c r="F29" s="28" t="s">
-        <v>83</v>
-      </c>
-      <c r="G29" s="28" t="s">
-        <v>159</v>
-      </c>
       <c r="H29" s="28" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="I29" s="28" t="s">
         <v>21</v>
@@ -3349,10 +3324,10 @@
         <v>27.0</v>
       </c>
       <c r="R29" s="32" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="S29" s="32" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="Y29" s="35">
         <v>27.0</v>
@@ -3368,25 +3343,25 @@
         <v>28.0</v>
       </c>
       <c r="B30" s="25" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C30" s="25" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="D30" s="25" t="s">
-        <v>92</v>
+        <v>26</v>
       </c>
       <c r="E30" s="25" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="F30" s="25" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="G30" s="25" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="H30" s="25" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="I30" s="25" t="s">
         <v>21</v>
@@ -3399,10 +3374,10 @@
         <v>28.0</v>
       </c>
       <c r="R30" s="25" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="S30" s="25" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="Y30" s="25">
         <v>28.0</v>
@@ -3418,13 +3393,13 @@
         <v>29.0</v>
       </c>
       <c r="B31" s="27" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C31" s="27" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="D31" s="27" t="s">
-        <v>92</v>
+        <v>26</v>
       </c>
       <c r="E31" s="50"/>
       <c r="F31" s="50"/>
@@ -3439,10 +3414,10 @@
         <v>29.0</v>
       </c>
       <c r="R31" s="32" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="S31" s="32" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="Y31" s="35">
         <v>29.0</v>
@@ -3458,13 +3433,13 @@
         <v>30.0</v>
       </c>
       <c r="B32" s="25" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C32" s="25" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="D32" s="25" t="s">
-        <v>92</v>
+        <v>26</v>
       </c>
       <c r="E32" s="50"/>
       <c r="F32" s="50"/>
@@ -3479,10 +3454,10 @@
         <v>30.0</v>
       </c>
       <c r="R32" s="25" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="S32" s="25" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="Y32" s="25">
         <v>30.0</v>
@@ -3498,13 +3473,13 @@
         <v>31.0</v>
       </c>
       <c r="B33" s="27" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C33" s="27" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="D33" s="27" t="s">
-        <v>92</v>
+        <v>26</v>
       </c>
       <c r="E33" s="50"/>
       <c r="F33" s="50"/>
@@ -3519,10 +3494,10 @@
         <v>31.0</v>
       </c>
       <c r="R33" s="32" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="S33" s="32" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="Y33" s="35">
         <v>31.0</v>
@@ -3538,13 +3513,13 @@
         <v>32.0</v>
       </c>
       <c r="B34" s="25" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C34" s="25" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="D34" s="25" t="s">
-        <v>92</v>
+        <v>26</v>
       </c>
       <c r="E34" s="50"/>
       <c r="F34" s="50"/>
@@ -3559,10 +3534,10 @@
         <v>32.0</v>
       </c>
       <c r="R34" s="25" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="S34" s="25" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="Y34" s="25">
         <v>32.0</v>
@@ -3578,13 +3553,13 @@
         <v>33.0</v>
       </c>
       <c r="B35" s="27" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C35" s="27" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="D35" s="27" t="s">
-        <v>92</v>
+        <v>26</v>
       </c>
       <c r="E35" s="50"/>
       <c r="F35" s="50"/>
@@ -3599,10 +3574,10 @@
         <v>33.0</v>
       </c>
       <c r="R35" s="32" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="S35" s="32" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
     </row>
     <row r="36">
@@ -3610,13 +3585,13 @@
         <v>34.0</v>
       </c>
       <c r="B36" s="25" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C36" s="25" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="D36" s="25" t="s">
-        <v>92</v>
+        <v>26</v>
       </c>
       <c r="E36" s="50"/>
       <c r="F36" s="50"/>
@@ -3631,10 +3606,10 @@
         <v>34.0</v>
       </c>
       <c r="R36" s="25" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="S36" s="25" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
     </row>
     <row r="37">
@@ -3642,13 +3617,13 @@
         <v>35.0</v>
       </c>
       <c r="B37" s="27" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C37" s="27" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="D37" s="27" t="s">
-        <v>92</v>
+        <v>26</v>
       </c>
       <c r="E37" s="50"/>
       <c r="F37" s="50"/>
@@ -3663,10 +3638,10 @@
         <v>35.0</v>
       </c>
       <c r="R37" s="32" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="S37" s="32" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
     </row>
     <row r="38">
@@ -3674,13 +3649,13 @@
         <v>36.0</v>
       </c>
       <c r="B38" s="25" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="C38" s="25" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="D38" s="25" t="s">
-        <v>92</v>
+        <v>26</v>
       </c>
       <c r="E38" s="50"/>
       <c r="F38" s="50"/>
@@ -3695,10 +3670,10 @@
         <v>36.0</v>
       </c>
       <c r="R38" s="25" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="S38" s="25" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="39">
@@ -3706,10 +3681,10 @@
         <v>37.0</v>
       </c>
       <c r="B39" s="27" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="C39" s="27" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="D39" s="27" t="s">
         <v>21</v>
@@ -3727,10 +3702,10 @@
         <v>37.0</v>
       </c>
       <c r="R39" s="32" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="S39" s="32" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
     </row>
     <row r="40">
@@ -3738,10 +3713,10 @@
         <v>38.0</v>
       </c>
       <c r="B40" s="25" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="C40" s="25" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="D40" s="25" t="s">
         <v>21</v>
@@ -3759,10 +3734,10 @@
         <v>38.0</v>
       </c>
       <c r="R40" s="25" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="S40" s="25" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
     </row>
     <row r="41">
@@ -3770,10 +3745,10 @@
         <v>39.0</v>
       </c>
       <c r="B41" s="27" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="C41" s="27" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="D41" s="27" t="s">
         <v>21</v>
@@ -3791,10 +3766,10 @@
         <v>39.0</v>
       </c>
       <c r="R41" s="32" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="S41" s="32" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
     </row>
     <row r="42">
@@ -3802,10 +3777,10 @@
         <v>40.0</v>
       </c>
       <c r="B42" s="25" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C42" s="25" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="D42" s="25" t="s">
         <v>21</v>
@@ -3823,21 +3798,21 @@
         <v>40.0</v>
       </c>
       <c r="R42" s="25" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="S42" s="25" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="27" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="B43" s="27" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="C43" s="27" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="D43" s="49"/>
       <c r="O43" s="31">
@@ -3848,24 +3823,24 @@
         <v>41.0</v>
       </c>
       <c r="R43" s="32" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="S43" s="32" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="25" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="B44" s="25" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="C44" s="25" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="D44" s="25" t="s">
-        <v>92</v>
+        <v>26</v>
       </c>
       <c r="O44" s="25">
         <v>42.0</v>
@@ -3875,24 +3850,24 @@
         <v>42.0</v>
       </c>
       <c r="R44" s="25" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="S44" s="25" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="27" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="B45" s="27" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="C45" s="27" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="D45" s="27" t="s">
-        <v>92</v>
+        <v>26</v>
       </c>
       <c r="O45" s="31">
         <v>43.0</v>
@@ -3902,15 +3877,15 @@
         <v>43.0</v>
       </c>
       <c r="R45" s="32" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="S45" s="32" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="25" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="B46" s="40"/>
       <c r="C46" s="40"/>
@@ -3923,15 +3898,15 @@
         <v>44.0</v>
       </c>
       <c r="R46" s="25" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="S46" s="25" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="27" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="B47" s="49"/>
       <c r="C47" s="49"/>
@@ -3944,24 +3919,24 @@
         <v>45.0</v>
       </c>
       <c r="R47" s="32" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="S47" s="32" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="25" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="B48" s="25" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="C48" s="25" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="D48" s="25" t="s">
-        <v>92</v>
+        <v>26</v>
       </c>
       <c r="O48" s="25">
         <v>46.0</v>
@@ -3971,21 +3946,21 @@
         <v>46.0</v>
       </c>
       <c r="R48" s="25" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="S48" s="25" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="27" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="B49" s="27" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C49" s="27" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="D49" s="27" t="s">
         <v>21</v>
@@ -4003,21 +3978,21 @@
         <v>47.0</v>
       </c>
       <c r="R49" s="32" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="S49" s="32" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="25" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="B50" s="25" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C50" s="25" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="D50" s="25" t="s">
         <v>21</v>
@@ -4035,10 +4010,10 @@
         <v>48.0</v>
       </c>
       <c r="R50" s="25" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="S50" s="25" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -4110,11 +4085,11 @@
       <c r="M1" s="10"/>
       <c r="N1" s="11"/>
       <c r="O1" s="12" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="P1" s="13"/>
       <c r="Q1" s="14" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="R1" s="15"/>
       <c r="S1" s="16"/>
@@ -4127,11 +4102,11 @@
       </c>
       <c r="W1" s="21"/>
       <c r="X1" s="17" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="Y1" s="18"/>
       <c r="Z1" s="4" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="AA1" s="5"/>
       <c r="AB1" s="6"/>
@@ -4230,7 +4205,7 @@
         <v>19</v>
       </c>
       <c r="C3" s="27" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="D3" s="27" t="s">
         <v>21</v>
@@ -4242,26 +4217,26 @@
         <v>23</v>
       </c>
       <c r="G3" s="54" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="H3" s="55"/>
       <c r="I3" s="54" t="s">
-        <v>92</v>
+        <v>26</v>
       </c>
       <c r="J3" s="29">
         <v>1.0</v>
       </c>
       <c r="K3" s="29" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="L3" s="30">
         <v>1.0</v>
       </c>
       <c r="M3" s="30" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="N3" s="30" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="O3" s="31">
         <v>1.0</v>
@@ -4273,7 +4248,7 @@
         <v>1.0</v>
       </c>
       <c r="R3" s="32" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="S3" s="32" t="s">
         <v>20</v>
@@ -4290,7 +4265,7 @@
         <v>1.0</v>
       </c>
       <c r="Y3" s="33" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="Z3" s="28">
         <v>1.0</v>
@@ -4299,7 +4274,7 @@
         <v>19</v>
       </c>
       <c r="AB3" s="28" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
     </row>
     <row r="4">
@@ -4307,58 +4282,58 @@
         <v>2.0</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C4" s="25" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="D4" s="25" t="s">
         <v>21</v>
       </c>
       <c r="E4" s="25" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F4" s="25" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="G4" s="25" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="H4" s="25" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="I4" s="25" t="s">
-        <v>92</v>
+        <v>26</v>
       </c>
       <c r="J4" s="25">
         <v>2.0</v>
       </c>
       <c r="K4" s="25" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="L4" s="25">
         <v>2.0</v>
       </c>
       <c r="M4" s="25" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="N4" s="25" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="O4" s="25">
         <v>2.0</v>
       </c>
       <c r="P4" s="25" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="Q4" s="25">
         <v>2.0</v>
       </c>
       <c r="R4" s="25" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="S4" s="25" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="T4" s="25">
         <v>2.0</v>
@@ -4372,16 +4347,16 @@
         <v>2.0</v>
       </c>
       <c r="Y4" s="25" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="Z4" s="25">
         <v>2.0</v>
       </c>
       <c r="AA4" s="25" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AB4" s="25" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
     </row>
     <row r="5">
@@ -4389,28 +4364,28 @@
         <v>3.0</v>
       </c>
       <c r="B5" s="27" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C5" s="27" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="D5" s="27" t="s">
         <v>21</v>
       </c>
       <c r="E5" s="54" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="F5" s="54" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="G5" s="54" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="H5" s="54" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="I5" s="54" t="s">
-        <v>92</v>
+        <v>26</v>
       </c>
       <c r="J5" s="29">
         <v>3.0</v>
@@ -4420,25 +4395,25 @@
         <v>3.0</v>
       </c>
       <c r="M5" s="30" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="N5" s="30" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="O5" s="31">
         <v>3.0</v>
       </c>
       <c r="P5" s="31" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="Q5" s="32">
         <v>3.0</v>
       </c>
       <c r="R5" s="32" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="S5" s="32" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="T5" s="35">
         <v>3.0</v>
@@ -4452,16 +4427,16 @@
         <v>3.0</v>
       </c>
       <c r="Y5" s="33" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="Z5" s="28">
         <v>3.0</v>
       </c>
       <c r="AA5" s="28" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="AB5" s="28" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
     </row>
     <row r="6">
@@ -4469,16 +4444,16 @@
         <v>4.0</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="D6" s="25" t="s">
         <v>21</v>
       </c>
       <c r="E6" s="25" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="F6" s="25"/>
       <c r="G6" s="25"/>
@@ -4492,25 +4467,25 @@
         <v>4.0</v>
       </c>
       <c r="M6" s="25" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="N6" s="25" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="O6" s="25">
         <v>4.0</v>
       </c>
       <c r="P6" s="25" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="Q6" s="25">
         <v>4.0</v>
       </c>
       <c r="R6" s="25" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="S6" s="25" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="T6" s="25">
         <v>4.0</v>
@@ -4524,16 +4499,16 @@
         <v>4.0</v>
       </c>
       <c r="Y6" s="25" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="Z6" s="25">
         <v>4.0</v>
       </c>
       <c r="AA6" s="25" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AB6" s="25" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
     </row>
     <row r="7">
@@ -4541,16 +4516,16 @@
         <v>5.0</v>
       </c>
       <c r="B7" s="27" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C7" s="27" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="D7" s="27" t="s">
         <v>21</v>
       </c>
       <c r="E7" s="54" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="F7" s="55"/>
       <c r="G7" s="55"/>
@@ -4569,16 +4544,16 @@
         <v>5.0</v>
       </c>
       <c r="P7" s="31" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="Q7" s="32">
         <v>5.0</v>
       </c>
       <c r="R7" s="32" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="S7" s="32" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="T7" s="35">
         <v>5.0</v>
@@ -4596,10 +4571,10 @@
         <v>5.0</v>
       </c>
       <c r="AA7" s="28" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="AB7" s="28" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
     </row>
     <row r="8">
@@ -4607,16 +4582,16 @@
         <v>6.0</v>
       </c>
       <c r="B8" s="25" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="D8" s="25" t="s">
         <v>21</v>
       </c>
       <c r="E8" s="25" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="F8" s="42"/>
       <c r="G8" s="42"/>
@@ -4635,7 +4610,7 @@
         <v>6.0</v>
       </c>
       <c r="P8" s="25" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="Q8" s="25">
         <v>6.0</v>
@@ -4658,10 +4633,10 @@
         <v>6.0</v>
       </c>
       <c r="AA8" s="25" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="AB8" s="25" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
     </row>
     <row r="9">
@@ -4669,16 +4644,16 @@
         <v>7.0</v>
       </c>
       <c r="B9" s="27" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C9" s="27" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="D9" s="27" t="s">
         <v>21</v>
       </c>
       <c r="E9" s="54" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="F9" s="55"/>
       <c r="G9" s="55"/>
@@ -4697,7 +4672,7 @@
         <v>7.0</v>
       </c>
       <c r="P9" s="31" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="Q9" s="32">
         <v>7.0</v>
@@ -4720,10 +4695,10 @@
         <v>7.0</v>
       </c>
       <c r="AA9" s="28" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="AB9" s="28" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
     </row>
     <row r="10">
@@ -4731,16 +4706,16 @@
         <v>8.0</v>
       </c>
       <c r="B10" s="25" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C10" s="25" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="D10" s="25" t="s">
         <v>21</v>
       </c>
       <c r="E10" s="25" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="F10" s="42"/>
       <c r="G10" s="42"/>
@@ -4750,7 +4725,7 @@
         <v>8.0</v>
       </c>
       <c r="K10" s="25" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="L10" s="25">
         <v>8.0</v>
@@ -4761,7 +4736,7 @@
         <v>8.0</v>
       </c>
       <c r="P10" s="25" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="Q10" s="25">
         <v>8.0</v>
@@ -4784,10 +4759,10 @@
         <v>8.0</v>
       </c>
       <c r="AA10" s="25" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="AB10" s="25" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
     </row>
     <row r="11">
@@ -4795,48 +4770,48 @@
         <v>9.0</v>
       </c>
       <c r="B11" s="27" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C11" s="27" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="D11" s="27" t="s">
         <v>21</v>
       </c>
       <c r="E11" s="54" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F11" s="55"/>
       <c r="G11" s="55"/>
       <c r="H11" s="55"/>
       <c r="I11" s="55"/>
       <c r="J11" s="29" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="K11" s="57"/>
       <c r="L11" s="30" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="M11" s="30" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="N11" s="30" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="O11" s="31">
         <v>9.0</v>
       </c>
       <c r="P11" s="31" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Q11" s="32">
         <v>9.0</v>
       </c>
       <c r="R11" s="32" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="S11" s="32" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="T11" s="35">
         <v>9.0</v>
@@ -4854,10 +4829,10 @@
         <v>9.0</v>
       </c>
       <c r="AA11" s="28" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AB11" s="28" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
     </row>
     <row r="12">
@@ -4865,33 +4840,33 @@
         <v>10.0</v>
       </c>
       <c r="B12" s="25" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C12" s="25" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="D12" s="25" t="s">
-        <v>92</v>
+        <v>26</v>
       </c>
       <c r="E12" s="25" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F12" s="42"/>
       <c r="G12" s="42"/>
       <c r="H12" s="42"/>
       <c r="I12" s="42"/>
       <c r="J12" s="25" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="K12" s="42"/>
       <c r="L12" s="25" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="M12" s="25" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="N12" s="25" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="O12" s="25">
         <v>10.0</v>
@@ -4901,10 +4876,10 @@
         <v>10.0</v>
       </c>
       <c r="R12" s="25" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="S12" s="25" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="T12" s="25">
         <v>10.0</v>
@@ -4922,10 +4897,10 @@
         <v>10.0</v>
       </c>
       <c r="AA12" s="25" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="AB12" s="25" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
     </row>
     <row r="13">
@@ -4933,27 +4908,27 @@
         <v>11.0</v>
       </c>
       <c r="B13" s="27" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C13" s="27" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="D13" s="27" t="s">
         <v>21</v>
       </c>
       <c r="E13" s="54" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F13" s="55"/>
       <c r="G13" s="55"/>
       <c r="H13" s="55"/>
       <c r="I13" s="55"/>
       <c r="J13" s="29" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="K13" s="57"/>
       <c r="L13" s="30" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="M13" s="58"/>
       <c r="N13" s="58"/>
@@ -4961,16 +4936,16 @@
         <v>11.0</v>
       </c>
       <c r="P13" s="31" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="Q13" s="32">
         <v>11.0</v>
       </c>
       <c r="R13" s="32" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="S13" s="32" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="T13" s="35">
         <v>11.0</v>
@@ -4988,10 +4963,10 @@
         <v>11.0</v>
       </c>
       <c r="AA13" s="28" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="AB13" s="28" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
     </row>
     <row r="14">
@@ -4999,27 +4974,27 @@
         <v>12.0</v>
       </c>
       <c r="B14" s="25" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C14" s="25" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="D14" s="25" t="s">
         <v>21</v>
       </c>
       <c r="E14" s="25" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="F14" s="42"/>
       <c r="G14" s="42"/>
       <c r="H14" s="42"/>
       <c r="I14" s="42"/>
       <c r="J14" s="25" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="K14" s="42"/>
       <c r="L14" s="25" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="M14" s="42"/>
       <c r="N14" s="42"/>
@@ -5027,16 +5002,16 @@
         <v>12.0</v>
       </c>
       <c r="P14" s="25" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="Q14" s="25">
         <v>12.0</v>
       </c>
       <c r="R14" s="25" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="S14" s="25" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="T14" s="25">
         <v>12.0</v>
@@ -5054,10 +5029,10 @@
         <v>12.0</v>
       </c>
       <c r="AA14" s="25" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="AB14" s="25" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
     </row>
     <row r="15">
@@ -5065,27 +5040,27 @@
         <v>13.0</v>
       </c>
       <c r="B15" s="27" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C15" s="27" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="D15" s="27" t="s">
-        <v>92</v>
+        <v>26</v>
       </c>
       <c r="E15" s="54" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="F15" s="55"/>
       <c r="G15" s="55"/>
       <c r="H15" s="55"/>
       <c r="I15" s="55"/>
       <c r="J15" s="29" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="K15" s="57"/>
       <c r="L15" s="30" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="M15" s="58"/>
       <c r="N15" s="58"/>
@@ -5093,16 +5068,16 @@
         <v>13.0</v>
       </c>
       <c r="P15" s="31" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="Q15" s="32">
         <v>13.0</v>
       </c>
       <c r="R15" s="32" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="S15" s="32" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="T15" s="35">
         <v>13.0</v>
@@ -5120,10 +5095,10 @@
         <v>13.0</v>
       </c>
       <c r="AA15" s="28" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="AB15" s="28" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
     </row>
     <row r="16">
@@ -5131,27 +5106,27 @@
         <v>14.0</v>
       </c>
       <c r="B16" s="25" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C16" s="25" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="D16" s="25" t="s">
-        <v>92</v>
+        <v>26</v>
       </c>
       <c r="E16" s="25" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="F16" s="40"/>
       <c r="G16" s="40"/>
       <c r="H16" s="40"/>
       <c r="I16" s="40"/>
       <c r="J16" s="25" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="K16" s="42"/>
       <c r="L16" s="25" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="M16" s="42"/>
       <c r="N16" s="42"/>
@@ -5159,16 +5134,16 @@
         <v>14.0</v>
       </c>
       <c r="P16" s="25" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="Q16" s="25">
         <v>14.0</v>
       </c>
       <c r="R16" s="25" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="S16" s="25" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="T16" s="25">
         <v>14.0</v>
@@ -5196,41 +5171,41 @@
       <c r="C17" s="49"/>
       <c r="D17" s="49"/>
       <c r="E17" s="54" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="F17" s="59"/>
       <c r="G17" s="59"/>
       <c r="H17" s="59"/>
       <c r="I17" s="59"/>
       <c r="J17" s="29" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="K17" s="29" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="L17" s="30" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="M17" s="30" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="N17" s="30" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="O17" s="31">
         <v>15.0</v>
       </c>
       <c r="P17" s="31" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="Q17" s="32">
         <v>15.0</v>
       </c>
       <c r="R17" s="32" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="S17" s="32" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="T17" s="35">
         <v>15.0</v>
@@ -5248,10 +5223,10 @@
         <v>15.0</v>
       </c>
       <c r="AA17" s="28" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="AB17" s="28" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
     </row>
     <row r="18">
@@ -5262,41 +5237,41 @@
       <c r="C18" s="40"/>
       <c r="D18" s="40"/>
       <c r="E18" s="25" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="F18" s="40"/>
       <c r="G18" s="40"/>
       <c r="H18" s="40"/>
       <c r="I18" s="40"/>
       <c r="J18" s="25" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="K18" s="25" t="s">
+        <v>255</v>
+      </c>
+      <c r="L18" s="25" t="s">
+        <v>213</v>
+      </c>
+      <c r="M18" s="25" t="s">
+        <v>256</v>
+      </c>
+      <c r="N18" s="25" t="s">
         <v>252</v>
-      </c>
-      <c r="L18" s="25" t="s">
-        <v>210</v>
-      </c>
-      <c r="M18" s="25" t="s">
-        <v>253</v>
-      </c>
-      <c r="N18" s="25" t="s">
-        <v>249</v>
       </c>
       <c r="O18" s="25">
         <v>16.0</v>
       </c>
       <c r="P18" s="38" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="Q18" s="25">
         <v>16.0</v>
       </c>
       <c r="R18" s="25" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="S18" s="25" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="T18" s="25">
         <v>16.0</v>
@@ -5314,10 +5289,10 @@
         <v>16.0</v>
       </c>
       <c r="AA18" s="25" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="AB18" s="25" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
     </row>
     <row r="19">
@@ -5325,26 +5300,26 @@
         <v>17.0</v>
       </c>
       <c r="B19" s="27" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="C19" s="27" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="D19" s="49"/>
       <c r="E19" s="54" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="F19" s="54" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="G19" s="54" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="H19" s="54" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="I19" s="54" t="s">
-        <v>92</v>
+        <v>26</v>
       </c>
       <c r="J19" s="60"/>
       <c r="K19" s="61"/>
@@ -5352,7 +5327,7 @@
         <v>17.0</v>
       </c>
       <c r="P19" s="31" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="Q19" s="32">
         <v>17.0</v>
@@ -5375,10 +5350,10 @@
         <v>17.0</v>
       </c>
       <c r="AA19" s="28" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AB19" s="28" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
     </row>
     <row r="20">
@@ -5386,23 +5361,23 @@
         <v>18.0</v>
       </c>
       <c r="B20" s="25" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C20" s="25" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="D20" s="40"/>
       <c r="E20" s="25" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="F20" s="25" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="G20" s="25" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="H20" s="25" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="I20" s="25" t="s">
         <v>21</v>
@@ -5411,7 +5386,7 @@
         <v>18.0</v>
       </c>
       <c r="P20" s="25" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="Q20" s="25">
         <v>18.0</v>
@@ -5434,10 +5409,10 @@
         <v>18.0</v>
       </c>
       <c r="AA20" s="25" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="AB20" s="25" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
     </row>
     <row r="21">
@@ -5445,23 +5420,23 @@
         <v>19.0</v>
       </c>
       <c r="B21" s="27" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C21" s="27" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="D21" s="49"/>
       <c r="E21" s="54" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="F21" s="54" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="G21" s="54" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="H21" s="54" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="I21" s="54" t="s">
         <v>21</v>
@@ -5470,7 +5445,7 @@
         <v>19.0</v>
       </c>
       <c r="P21" s="31" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="Q21" s="32">
         <v>19.0</v>
@@ -5493,10 +5468,10 @@
         <v>19.0</v>
       </c>
       <c r="AA21" s="28" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="AB21" s="28" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
     </row>
     <row r="22">
@@ -5504,32 +5479,32 @@
         <v>20.0</v>
       </c>
       <c r="B22" s="25" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C22" s="25" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="D22" s="40"/>
       <c r="E22" s="25" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="F22" s="25" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="G22" s="25" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="H22" s="25" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="I22" s="25" t="s">
-        <v>92</v>
+        <v>26</v>
       </c>
       <c r="O22" s="25">
         <v>20.0</v>
       </c>
       <c r="P22" s="25" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="Q22" s="25">
         <v>20.0</v>
@@ -5552,10 +5527,10 @@
         <v>20.0</v>
       </c>
       <c r="AA22" s="25" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="AB22" s="25" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
     </row>
     <row r="23">
@@ -5563,14 +5538,14 @@
         <v>21.0</v>
       </c>
       <c r="B23" s="27" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C23" s="27" t="s">
         <v>20</v>
       </c>
       <c r="D23" s="49"/>
       <c r="E23" s="54" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="F23" s="59"/>
       <c r="G23" s="59"/>
@@ -5580,7 +5555,7 @@
         <v>21.0</v>
       </c>
       <c r="P23" s="31" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="Q23" s="32">
         <v>21.0</v>
@@ -5603,10 +5578,10 @@
         <v>21.0</v>
       </c>
       <c r="AA23" s="28" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="AB23" s="28" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
     </row>
     <row r="24">
@@ -5614,14 +5589,14 @@
         <v>22.0</v>
       </c>
       <c r="B24" s="25" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C24" s="25" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D24" s="40"/>
       <c r="E24" s="25" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="F24" s="40"/>
       <c r="G24" s="40"/>
@@ -5631,7 +5606,7 @@
         <v>22.0</v>
       </c>
       <c r="P24" s="25" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="Q24" s="25">
         <v>22.0</v>
@@ -5654,10 +5629,10 @@
         <v>22.0</v>
       </c>
       <c r="AA24" s="25" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AB24" s="25" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
     </row>
     <row r="25">
@@ -5668,7 +5643,7 @@
       <c r="C25" s="49"/>
       <c r="D25" s="49"/>
       <c r="E25" s="54" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="F25" s="59"/>
       <c r="G25" s="59"/>
@@ -5699,7 +5674,7 @@
         <v>23.0</v>
       </c>
       <c r="AA25" s="28" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AB25" s="28" t="s">
         <v>20</v>
@@ -5713,7 +5688,7 @@
       <c r="C26" s="40"/>
       <c r="D26" s="40"/>
       <c r="E26" s="25" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="F26" s="40"/>
       <c r="G26" s="40"/>
@@ -5723,7 +5698,7 @@
         <v>24.0</v>
       </c>
       <c r="P26" s="25" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="Q26" s="25">
         <v>24.0</v>
@@ -5746,10 +5721,10 @@
         <v>24.0</v>
       </c>
       <c r="AA26" s="25" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="AB26" s="25" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="27">
@@ -5760,7 +5735,7 @@
       <c r="C27" s="49"/>
       <c r="D27" s="49"/>
       <c r="E27" s="54" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="F27" s="59"/>
       <c r="G27" s="59"/>
@@ -5770,7 +5745,7 @@
         <v>25.0</v>
       </c>
       <c r="P27" s="31" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="Q27" s="32">
         <v>25.0</v>
@@ -5793,10 +5768,10 @@
         <v>25.0</v>
       </c>
       <c r="AA27" s="28" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="AB27" s="28" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="28">
@@ -5807,7 +5782,7 @@
       <c r="C28" s="40"/>
       <c r="D28" s="40"/>
       <c r="E28" s="25" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="F28" s="40"/>
       <c r="G28" s="40"/>
@@ -5817,7 +5792,7 @@
         <v>26.0</v>
       </c>
       <c r="P28" s="25" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="Q28" s="25">
         <v>26.0</v>
@@ -5840,10 +5815,10 @@
         <v>26.0</v>
       </c>
       <c r="AA28" s="25" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="AB28" s="25" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="29">
@@ -5854,7 +5829,7 @@
       <c r="C29" s="49"/>
       <c r="D29" s="49"/>
       <c r="E29" s="54" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="F29" s="59"/>
       <c r="G29" s="59"/>
@@ -5864,7 +5839,7 @@
         <v>27.0</v>
       </c>
       <c r="P29" s="31" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="Q29" s="32">
         <v>27.0</v>
@@ -5894,16 +5869,16 @@
         <v>28.0</v>
       </c>
       <c r="B30" s="25" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C30" s="25" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="D30" s="25" t="s">
-        <v>92</v>
+        <v>26</v>
       </c>
       <c r="E30" s="25" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="F30" s="42"/>
       <c r="G30" s="42"/>
@@ -5913,7 +5888,7 @@
         <v>28.0</v>
       </c>
       <c r="P30" s="25" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="Q30" s="25">
         <v>28.0</v>
@@ -5943,13 +5918,13 @@
         <v>29.0</v>
       </c>
       <c r="B31" s="27" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C31" s="27" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="D31" s="27" t="s">
-        <v>92</v>
+        <v>26</v>
       </c>
       <c r="E31" s="62"/>
       <c r="F31" s="50"/>
@@ -5960,7 +5935,7 @@
         <v>29.0</v>
       </c>
       <c r="P31" s="31" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="Q31" s="32">
         <v>29.0</v>
@@ -5990,13 +5965,13 @@
         <v>30.0</v>
       </c>
       <c r="B32" s="25" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C32" s="25" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="D32" s="25" t="s">
-        <v>92</v>
+        <v>26</v>
       </c>
       <c r="E32" s="50"/>
       <c r="F32" s="50"/>
@@ -6007,7 +5982,7 @@
         <v>30.0</v>
       </c>
       <c r="P32" s="25" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="Q32" s="25">
         <v>30.0</v>
@@ -6037,13 +6012,13 @@
         <v>31.0</v>
       </c>
       <c r="B33" s="27" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C33" s="27" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="D33" s="27" t="s">
-        <v>92</v>
+        <v>26</v>
       </c>
       <c r="E33" s="50"/>
       <c r="F33" s="50"/>
@@ -6054,7 +6029,7 @@
         <v>31.0</v>
       </c>
       <c r="P33" s="31" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="Q33" s="32">
         <v>31.0</v>
@@ -6084,13 +6059,13 @@
         <v>32.0</v>
       </c>
       <c r="B34" s="25" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C34" s="25" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="D34" s="25" t="s">
-        <v>92</v>
+        <v>26</v>
       </c>
       <c r="E34" s="50"/>
       <c r="F34" s="50"/>
@@ -6101,7 +6076,7 @@
         <v>32.0</v>
       </c>
       <c r="P34" s="25" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="Q34" s="25">
         <v>32.0</v>
@@ -6131,13 +6106,13 @@
         <v>33.0</v>
       </c>
       <c r="B35" s="27" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C35" s="27" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="D35" s="27" t="s">
-        <v>92</v>
+        <v>26</v>
       </c>
       <c r="E35" s="50"/>
       <c r="F35" s="50"/>
@@ -6148,7 +6123,7 @@
         <v>33.0</v>
       </c>
       <c r="P35" s="31" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="Q35" s="32">
         <v>33.0</v>
@@ -6172,13 +6147,13 @@
         <v>34.0</v>
       </c>
       <c r="B36" s="25" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C36" s="25" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="D36" s="25" t="s">
-        <v>92</v>
+        <v>26</v>
       </c>
       <c r="E36" s="50"/>
       <c r="F36" s="50"/>
@@ -6189,7 +6164,7 @@
         <v>34.0</v>
       </c>
       <c r="P36" s="25" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="Q36" s="25">
         <v>34.0</v>
@@ -6197,13 +6172,13 @@
       <c r="R36" s="40"/>
       <c r="S36" s="25"/>
       <c r="T36" s="63" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="X36" s="25">
         <v>34.0</v>
       </c>
       <c r="Y36" s="25" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="Z36" s="25">
         <v>34.0</v>
@@ -6216,13 +6191,13 @@
         <v>35.0</v>
       </c>
       <c r="B37" s="27" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C37" s="27" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="D37" s="27" t="s">
-        <v>92</v>
+        <v>26</v>
       </c>
       <c r="E37" s="50"/>
       <c r="F37" s="50"/>
@@ -6233,7 +6208,7 @@
         <v>35.0</v>
       </c>
       <c r="P37" s="31" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="Q37" s="32">
         <v>35.0</v>
@@ -6244,7 +6219,7 @@
         <v>35.0</v>
       </c>
       <c r="Y37" s="33" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="Z37" s="28">
         <v>35.0</v>
@@ -6257,13 +6232,13 @@
         <v>36.0</v>
       </c>
       <c r="B38" s="25" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="C38" s="25" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="D38" s="25" t="s">
-        <v>92</v>
+        <v>26</v>
       </c>
       <c r="E38" s="50"/>
       <c r="F38" s="50"/>
@@ -6274,7 +6249,7 @@
         <v>36.0</v>
       </c>
       <c r="P38" s="25" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="Q38" s="25">
         <v>36.0</v>
@@ -6285,7 +6260,7 @@
         <v>36.0</v>
       </c>
       <c r="Y38" s="25" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="Z38" s="25">
         <v>36.0</v>
@@ -6298,10 +6273,10 @@
         <v>37.0</v>
       </c>
       <c r="B39" s="27" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="C39" s="27" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="D39" s="27" t="s">
         <v>21</v>
@@ -6315,7 +6290,7 @@
         <v>37.0</v>
       </c>
       <c r="P39" s="31" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="Q39" s="32">
         <v>37.0</v>
@@ -6326,7 +6301,7 @@
         <v>37.0</v>
       </c>
       <c r="Y39" s="33" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="Z39" s="28">
         <v>37.0</v>
@@ -6339,10 +6314,10 @@
         <v>38.0</v>
       </c>
       <c r="B40" s="25" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="C40" s="25" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="D40" s="25" t="s">
         <v>21</v>
@@ -6356,7 +6331,7 @@
         <v>38.0</v>
       </c>
       <c r="P40" s="25" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="Q40" s="25">
         <v>38.0</v>
@@ -6367,7 +6342,7 @@
         <v>38.0</v>
       </c>
       <c r="Y40" s="25" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="Z40" s="25">
         <v>38.0</v>
@@ -6380,10 +6355,10 @@
         <v>39.0</v>
       </c>
       <c r="B41" s="27" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="C41" s="27" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="D41" s="27" t="s">
         <v>21</v>
@@ -6397,7 +6372,7 @@
         <v>39.0</v>
       </c>
       <c r="P41" s="31" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="Q41" s="32">
         <v>39.0</v>
@@ -6408,7 +6383,7 @@
         <v>39.0</v>
       </c>
       <c r="Y41" s="33" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="Z41" s="28">
         <v>39.0</v>
@@ -6421,10 +6396,10 @@
         <v>40.0</v>
       </c>
       <c r="B42" s="25" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C42" s="25" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D42" s="25" t="s">
         <v>21</v>
@@ -6438,7 +6413,7 @@
         <v>40.0</v>
       </c>
       <c r="P42" s="25" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="Q42" s="25">
         <v>40.0</v>
@@ -6449,7 +6424,7 @@
         <v>40.0</v>
       </c>
       <c r="Y42" s="25" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="Z42" s="25">
         <v>40.0</v>
@@ -6459,7 +6434,7 @@
     </row>
     <row r="43">
       <c r="A43" s="27" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="B43" s="27"/>
       <c r="C43" s="27"/>
@@ -6468,7 +6443,7 @@
         <v>41.0</v>
       </c>
       <c r="P43" s="31" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="Q43" s="32">
         <v>41.0</v>
@@ -6479,7 +6454,7 @@
         <v>41.0</v>
       </c>
       <c r="Y43" s="33" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Z43" s="28">
         <v>41.0</v>
@@ -6489,7 +6464,7 @@
     </row>
     <row r="44">
       <c r="A44" s="25" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="B44" s="40"/>
       <c r="C44" s="40"/>
@@ -6498,7 +6473,7 @@
         <v>42.0</v>
       </c>
       <c r="P44" s="25" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="Q44" s="25">
         <v>42.0</v>
@@ -6516,7 +6491,7 @@
     </row>
     <row r="45">
       <c r="A45" s="27" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="B45" s="49"/>
       <c r="C45" s="49"/>
@@ -6525,7 +6500,7 @@
         <v>43.0</v>
       </c>
       <c r="P45" s="31" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="Q45" s="32">
         <v>43.0</v>
@@ -6536,7 +6511,7 @@
         <v>43.0</v>
       </c>
       <c r="Y45" s="33" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="Z45" s="28">
         <v>43.0</v>
@@ -6546,7 +6521,7 @@
     </row>
     <row r="46">
       <c r="A46" s="25" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="B46" s="40"/>
       <c r="C46" s="40"/>
@@ -6555,7 +6530,7 @@
         <v>44.0</v>
       </c>
       <c r="P46" s="25" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="Q46" s="25">
         <v>44.0</v>
@@ -6566,7 +6541,7 @@
         <v>44.0</v>
       </c>
       <c r="Y46" s="25" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="Z46" s="25">
         <v>44.0</v>
@@ -6576,7 +6551,7 @@
     </row>
     <row r="47">
       <c r="A47" s="27" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="B47" s="49"/>
       <c r="C47" s="49"/>
@@ -6585,7 +6560,7 @@
         <v>45.0</v>
       </c>
       <c r="P47" s="31" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="Q47" s="32">
         <v>45.0</v>
@@ -6596,7 +6571,7 @@
         <v>45.0</v>
       </c>
       <c r="Y47" s="33" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="Z47" s="28">
         <v>45.0</v>
@@ -6606,22 +6581,22 @@
     </row>
     <row r="48">
       <c r="A48" s="25" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="B48" s="25" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="C48" s="25" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="D48" s="25" t="s">
-        <v>92</v>
+        <v>26</v>
       </c>
       <c r="O48" s="25">
         <v>46.0</v>
       </c>
       <c r="P48" s="25" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="Q48" s="25">
         <v>46.0</v>
@@ -6632,7 +6607,7 @@
         <v>46.0</v>
       </c>
       <c r="Y48" s="25" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="Z48" s="25">
         <v>46.0</v>
@@ -6642,16 +6617,16 @@
     </row>
     <row r="49">
       <c r="A49" s="27" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="B49" s="27" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="C49" s="27" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="D49" s="27" t="s">
-        <v>92</v>
+        <v>26</v>
       </c>
       <c r="E49" s="50"/>
       <c r="F49" s="50"/>
@@ -6662,7 +6637,7 @@
         <v>47.0</v>
       </c>
       <c r="P49" s="31" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="Q49" s="32">
         <v>47.0</v>
@@ -6673,7 +6648,7 @@
         <v>47.0</v>
       </c>
       <c r="Y49" s="33" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="Z49" s="28">
         <v>47.0</v>
@@ -6683,16 +6658,16 @@
     </row>
     <row r="50">
       <c r="A50" s="25" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="B50" s="25" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="C50" s="25" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="D50" s="25" t="s">
-        <v>92</v>
+        <v>26</v>
       </c>
       <c r="E50" s="50"/>
       <c r="F50" s="50"/>
@@ -6703,7 +6678,7 @@
         <v>48.0</v>
       </c>
       <c r="P50" s="25" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="Q50" s="25">
         <v>48.0</v>
@@ -6714,7 +6689,7 @@
         <v>48.0</v>
       </c>
       <c r="Y50" s="25" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="Z50" s="25">
         <v>48.0</v>
@@ -6727,7 +6702,7 @@
         <v>49.0</v>
       </c>
       <c r="Y51" s="33" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="Z51" s="28">
         <v>49.0</v>
@@ -6740,7 +6715,7 @@
         <v>50.0</v>
       </c>
       <c r="Y52" s="25" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="Z52" s="25">
         <v>50.0</v>
@@ -6753,7 +6728,7 @@
         <v>51.0</v>
       </c>
       <c r="Y53" s="33" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="Z53" s="28">
         <v>51.0</v>
@@ -6766,7 +6741,7 @@
         <v>52.0</v>
       </c>
       <c r="Y54" s="25" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="Z54" s="25">
         <v>52.0</v>
@@ -6779,7 +6754,7 @@
         <v>53.0</v>
       </c>
       <c r="Y55" s="33" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="Z55" s="28">
         <v>53.0</v>
@@ -6792,7 +6767,7 @@
         <v>54.0</v>
       </c>
       <c r="Y56" s="25" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="Z56" s="25">
         <v>54.0</v>
@@ -6805,7 +6780,7 @@
         <v>55.0</v>
       </c>
       <c r="Y57" s="33" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="Z57" s="28">
         <v>55.0</v>
@@ -6818,7 +6793,7 @@
         <v>56.0</v>
       </c>
       <c r="Y58" s="25" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="Z58" s="25">
         <v>56.0</v>
@@ -6831,7 +6806,7 @@
         <v>57.0</v>
       </c>
       <c r="Y59" s="33" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="Z59" s="28">
         <v>57.0</v>
@@ -6844,7 +6819,7 @@
         <v>58.0</v>
       </c>
       <c r="Y60" s="25" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="Z60" s="25">
         <v>58.0</v>
@@ -6956,514 +6931,544 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="64" t="s">
-        <v>284</v>
-      </c>
+        <v>287</v>
+      </c>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="66"/>
       <c r="E1" s="62"/>
       <c r="F1" s="62"/>
-      <c r="G1" s="64" t="s">
-        <v>285</v>
-      </c>
-      <c r="M1" s="64" t="s">
-        <v>286</v>
-      </c>
+      <c r="G1" s="14" t="s">
+        <v>288</v>
+      </c>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="16"/>
+      <c r="M1" s="17" t="s">
+        <v>289</v>
+      </c>
+      <c r="N1" s="18"/>
+      <c r="O1" s="18"/>
+      <c r="P1" s="19"/>
     </row>
     <row r="2">
-      <c r="A2" s="62" t="s">
+      <c r="A2" s="67" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="62" t="s">
+      <c r="B2" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="62" t="s">
+      <c r="C2" s="67" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="62" t="s">
-        <v>287</v>
-      </c>
-      <c r="G2" s="62" t="s">
+      <c r="D2" s="67" t="s">
+        <v>290</v>
+      </c>
+      <c r="G2" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="62" t="s">
+      <c r="H2" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="62" t="s">
+      <c r="I2" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="J2" s="62" t="s">
-        <v>287</v>
-      </c>
-      <c r="M2" s="62" t="s">
+      <c r="J2" s="25" t="s">
+        <v>290</v>
+      </c>
+      <c r="M2" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="N2" s="62" t="s">
+      <c r="N2" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="O2" s="62" t="s">
+      <c r="O2" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="P2" s="62" t="s">
-        <v>287</v>
+      <c r="P2" s="25" t="s">
+        <v>290</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="62">
+      <c r="A3" s="67">
         <v>1.0</v>
       </c>
-      <c r="B3" s="65" t="s">
+      <c r="B3" s="67" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="62">
+      <c r="C3" s="67">
         <v>1.0</v>
       </c>
-      <c r="D3" s="65" t="s">
+      <c r="D3" s="67" t="s">
         <v>23</v>
       </c>
-      <c r="G3" s="62">
+      <c r="G3" s="32">
         <v>1.0</v>
       </c>
-      <c r="H3" s="65" t="s">
-        <v>28</v>
-      </c>
-      <c r="I3" s="62">
+      <c r="H3" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="I3" s="32">
         <v>1.0</v>
       </c>
-      <c r="J3" s="66" t="s">
-        <v>288</v>
-      </c>
-      <c r="M3" s="62">
+      <c r="J3" s="68" t="s">
+        <v>291</v>
+      </c>
+      <c r="M3" s="33">
         <v>1.0</v>
       </c>
-      <c r="N3" s="65" t="s">
-        <v>27</v>
-      </c>
-      <c r="O3" s="62">
+      <c r="N3" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="O3" s="33">
         <v>1.0</v>
       </c>
-      <c r="P3" s="65" t="s">
-        <v>203</v>
+      <c r="P3" s="33" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="62">
+      <c r="A4" s="67">
         <v>2.0</v>
       </c>
-      <c r="B4" s="65" t="s">
-        <v>34</v>
-      </c>
-      <c r="C4" s="62">
+      <c r="B4" s="67" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="67">
         <v>2.0</v>
       </c>
-      <c r="D4" s="65" t="s">
-        <v>37</v>
-      </c>
-      <c r="G4" s="62">
+      <c r="D4" s="67" t="s">
+        <v>39</v>
+      </c>
+      <c r="G4" s="25">
         <v>2.0</v>
       </c>
-      <c r="H4" s="65" t="s">
-        <v>41</v>
-      </c>
-      <c r="I4" s="62">
+      <c r="H4" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="I4" s="25">
         <v>2.0</v>
       </c>
-      <c r="J4" s="66" t="s">
+      <c r="J4" s="39" t="s">
+        <v>62</v>
+      </c>
+      <c r="M4" s="25">
+        <v>2.0</v>
+      </c>
+      <c r="N4" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="O4" s="25">
+        <v>2.0</v>
+      </c>
+      <c r="P4" s="25" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="67">
+        <v>3.0</v>
+      </c>
+      <c r="B5" s="67" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" s="67">
+        <v>3.0</v>
+      </c>
+      <c r="D5" s="69"/>
+      <c r="G5" s="32">
+        <v>3.0</v>
+      </c>
+      <c r="H5" s="32" t="s">
+        <v>55</v>
+      </c>
+      <c r="I5" s="32">
+        <v>3.0</v>
+      </c>
+      <c r="J5" s="70" t="s">
+        <v>72</v>
+      </c>
+      <c r="M5" s="33">
+        <v>3.0</v>
+      </c>
+      <c r="N5" s="33"/>
+      <c r="O5" s="33">
+        <v>3.0</v>
+      </c>
+      <c r="P5" s="33" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="67">
+        <v>4.0</v>
+      </c>
+      <c r="B6" s="67" t="s">
         <v>59</v>
       </c>
-      <c r="M4" s="62">
-        <v>2.0</v>
-      </c>
-      <c r="N4" s="65" t="s">
-        <v>40</v>
-      </c>
-      <c r="O4" s="62">
-        <v>2.0</v>
-      </c>
-      <c r="P4" s="65" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="62">
-        <v>3.0</v>
-      </c>
-      <c r="B5" s="65" t="s">
-        <v>45</v>
-      </c>
-      <c r="C5" s="62">
-        <v>3.0</v>
-      </c>
-      <c r="D5" s="67"/>
-      <c r="G5" s="62">
-        <v>3.0</v>
-      </c>
-      <c r="H5" s="65" t="s">
-        <v>52</v>
-      </c>
-      <c r="I5" s="62">
-        <v>3.0</v>
-      </c>
-      <c r="J5" s="68" t="s">
+      <c r="C6" s="71">
+        <v>4.0</v>
+      </c>
+      <c r="D6" s="69"/>
+      <c r="G6" s="25">
+        <v>4.0</v>
+      </c>
+      <c r="H6" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="I6" s="25">
+        <v>4.0</v>
+      </c>
+      <c r="J6" s="40"/>
+      <c r="M6" s="25">
+        <v>4.0</v>
+      </c>
+      <c r="N6" s="25"/>
+      <c r="O6" s="25">
+        <v>4.0</v>
+      </c>
+      <c r="P6" s="25" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="67">
+        <v>5.0</v>
+      </c>
+      <c r="B7" s="67" t="s">
         <v>69</v>
       </c>
-      <c r="M5" s="62">
-        <v>3.0</v>
-      </c>
-      <c r="N5" s="65"/>
-      <c r="O5" s="62">
-        <v>3.0</v>
-      </c>
-      <c r="P5" s="65" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="62">
-        <v>4.0</v>
-      </c>
-      <c r="B6" s="65" t="s">
-        <v>56</v>
-      </c>
-      <c r="C6" s="62">
-        <v>4.0</v>
-      </c>
-      <c r="D6" s="67"/>
-      <c r="G6" s="62">
-        <v>4.0</v>
-      </c>
-      <c r="H6" s="65" t="s">
-        <v>63</v>
-      </c>
-      <c r="I6" s="62">
-        <v>4.0</v>
-      </c>
-      <c r="M6" s="62">
-        <v>4.0</v>
-      </c>
-      <c r="N6" s="65"/>
-      <c r="O6" s="62">
-        <v>4.0</v>
-      </c>
-      <c r="P6" s="65" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="62">
+      <c r="C7" s="67">
         <v>5.0</v>
       </c>
-      <c r="B7" s="65" t="s">
-        <v>66</v>
-      </c>
-      <c r="C7" s="62">
+      <c r="D7" s="69"/>
+      <c r="G7" s="32">
         <v>5.0</v>
       </c>
-      <c r="D7" s="67"/>
-      <c r="G7" s="62">
+      <c r="H7" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="I7" s="32">
         <v>5.0</v>
       </c>
-      <c r="H7" s="65" t="s">
-        <v>72</v>
-      </c>
-      <c r="I7" s="62">
+      <c r="J7" s="56"/>
+      <c r="M7" s="33">
         <v>5.0</v>
       </c>
-      <c r="M7" s="62">
+      <c r="N7" s="33"/>
+      <c r="O7" s="33">
         <v>5.0</v>
       </c>
-      <c r="N7" s="65"/>
-      <c r="O7" s="62">
-        <v>5.0</v>
-      </c>
-      <c r="P7" s="67"/>
+      <c r="P7" s="46"/>
     </row>
     <row r="8">
-      <c r="A8" s="62">
+      <c r="A8" s="67">
         <v>6.0</v>
       </c>
-      <c r="B8" s="65" t="s">
-        <v>75</v>
-      </c>
-      <c r="C8" s="62">
+      <c r="B8" s="67" t="s">
+        <v>78</v>
+      </c>
+      <c r="C8" s="67">
         <v>6.0</v>
       </c>
-      <c r="D8" s="67"/>
-      <c r="G8" s="62">
+      <c r="D8" s="69"/>
+      <c r="G8" s="25">
         <v>6.0</v>
       </c>
-      <c r="H8" s="65" t="s">
-        <v>78</v>
-      </c>
-      <c r="I8" s="62">
+      <c r="H8" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="I8" s="25">
         <v>6.0</v>
       </c>
-      <c r="M8" s="62">
+      <c r="J8" s="40"/>
+      <c r="M8" s="25">
         <v>6.0</v>
       </c>
-      <c r="N8" s="65"/>
-      <c r="O8" s="62">
+      <c r="N8" s="25"/>
+      <c r="O8" s="25">
         <v>6.0</v>
       </c>
-      <c r="P8" s="67"/>
+      <c r="P8" s="40"/>
     </row>
     <row r="9">
-      <c r="A9" s="62">
+      <c r="A9" s="67">
         <v>7.0</v>
       </c>
-      <c r="B9" s="65" t="s">
-        <v>80</v>
-      </c>
-      <c r="C9" s="62">
+      <c r="B9" s="67" t="s">
+        <v>83</v>
+      </c>
+      <c r="C9" s="67">
         <v>7.0</v>
       </c>
-      <c r="D9" s="65" t="s">
-        <v>83</v>
-      </c>
-      <c r="G9" s="62">
+      <c r="D9" s="67" t="s">
+        <v>86</v>
+      </c>
+      <c r="G9" s="32">
         <v>7.0</v>
       </c>
-      <c r="I9" s="62">
+      <c r="H9" s="56"/>
+      <c r="I9" s="32">
         <v>7.0</v>
       </c>
-      <c r="M9" s="62">
+      <c r="J9" s="56"/>
+      <c r="M9" s="33">
         <v>7.0</v>
       </c>
-      <c r="N9" s="65"/>
-      <c r="O9" s="62">
+      <c r="N9" s="33"/>
+      <c r="O9" s="33">
         <v>7.0</v>
       </c>
-      <c r="P9" s="65"/>
+      <c r="P9" s="33"/>
     </row>
     <row r="10">
-      <c r="A10" s="62">
+      <c r="A10" s="67">
         <v>8.0</v>
       </c>
-      <c r="B10" s="65" t="s">
-        <v>86</v>
-      </c>
-      <c r="C10" s="62">
+      <c r="B10" s="67" t="s">
+        <v>89</v>
+      </c>
+      <c r="C10" s="67">
         <v>8.0</v>
       </c>
-      <c r="D10" s="65" t="s">
-        <v>89</v>
-      </c>
-      <c r="G10" s="62">
+      <c r="D10" s="67" t="s">
+        <v>92</v>
+      </c>
+      <c r="G10" s="25">
         <v>8.0</v>
       </c>
-      <c r="I10" s="62">
+      <c r="H10" s="40"/>
+      <c r="I10" s="25">
         <v>8.0</v>
       </c>
-      <c r="M10" s="62">
+      <c r="J10" s="40"/>
+      <c r="M10" s="25">
         <v>8.0</v>
       </c>
-      <c r="N10" s="65" t="s">
-        <v>71</v>
-      </c>
-      <c r="O10" s="62">
+      <c r="N10" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="O10" s="25">
         <v>8.0</v>
       </c>
-      <c r="P10" s="65"/>
+      <c r="P10" s="25"/>
     </row>
     <row r="11">
-      <c r="A11" s="62">
+      <c r="A11" s="67">
         <v>9.0</v>
       </c>
-      <c r="B11" s="65" t="s">
-        <v>37</v>
-      </c>
-      <c r="C11" s="62" t="s">
-        <v>289</v>
-      </c>
-      <c r="D11" s="60" t="s">
-        <v>158</v>
-      </c>
-      <c r="G11" s="62">
+      <c r="B11" s="67" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="67" t="s">
+        <v>292</v>
+      </c>
+      <c r="D11" s="67" t="s">
+        <v>161</v>
+      </c>
+      <c r="G11" s="67">
         <v>9.0</v>
       </c>
-      <c r="M11" s="62" t="s">
-        <v>190</v>
-      </c>
-      <c r="N11" s="69"/>
-      <c r="O11" s="62" t="s">
-        <v>190</v>
-      </c>
-      <c r="P11" s="65" t="s">
-        <v>231</v>
+      <c r="H11" s="69"/>
+      <c r="M11" s="33" t="s">
+        <v>193</v>
+      </c>
+      <c r="N11" s="72"/>
+      <c r="O11" s="33" t="s">
+        <v>193</v>
+      </c>
+      <c r="P11" s="33" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="62">
+      <c r="A12" s="67">
         <v>10.0</v>
       </c>
-      <c r="B12" s="67"/>
-      <c r="G12" s="62">
+      <c r="B12" s="69"/>
+      <c r="G12" s="67">
         <v>10.0</v>
       </c>
-      <c r="M12" s="62" t="s">
-        <v>194</v>
-      </c>
-      <c r="N12" s="69"/>
-      <c r="O12" s="62" t="s">
-        <v>194</v>
-      </c>
-      <c r="P12" s="65" t="s">
-        <v>235</v>
+      <c r="H12" s="69"/>
+      <c r="M12" s="25" t="s">
+        <v>197</v>
+      </c>
+      <c r="N12" s="42"/>
+      <c r="O12" s="25" t="s">
+        <v>197</v>
+      </c>
+      <c r="P12" s="25" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="62">
+      <c r="A13" s="67">
         <v>11.0</v>
       </c>
-      <c r="B13" s="67"/>
-      <c r="G13" s="62">
+      <c r="B13" s="69"/>
+      <c r="G13" s="67">
         <v>11.0</v>
       </c>
-      <c r="M13" s="62" t="s">
-        <v>198</v>
-      </c>
-      <c r="N13" s="69"/>
-      <c r="O13" s="62" t="s">
-        <v>198</v>
-      </c>
+      <c r="H13" s="69"/>
+      <c r="M13" s="33" t="s">
+        <v>201</v>
+      </c>
+      <c r="N13" s="72"/>
+      <c r="O13" s="33" t="s">
+        <v>201</v>
+      </c>
+      <c r="P13" s="46"/>
     </row>
     <row r="14">
-      <c r="A14" s="62">
+      <c r="A14" s="67">
         <v>12.0</v>
       </c>
-      <c r="B14" s="67"/>
-      <c r="G14" s="62">
+      <c r="B14" s="69"/>
+      <c r="G14" s="67">
         <v>12.0</v>
       </c>
-      <c r="M14" s="62" t="s">
-        <v>201</v>
-      </c>
-      <c r="N14" s="69"/>
-      <c r="O14" s="62" t="s">
-        <v>201</v>
-      </c>
+      <c r="H14" s="69"/>
+      <c r="M14" s="25" t="s">
+        <v>204</v>
+      </c>
+      <c r="N14" s="42"/>
+      <c r="O14" s="25" t="s">
+        <v>204</v>
+      </c>
+      <c r="P14" s="40"/>
     </row>
     <row r="15">
-      <c r="A15" s="62">
+      <c r="A15" s="67">
         <v>13.0</v>
       </c>
-      <c r="B15" s="67"/>
-      <c r="G15" s="62">
+      <c r="B15" s="69"/>
+      <c r="G15" s="67">
         <v>13.0</v>
       </c>
-      <c r="M15" s="62" t="s">
-        <v>202</v>
-      </c>
-      <c r="N15" s="69"/>
-      <c r="O15" s="62" t="s">
-        <v>202</v>
-      </c>
+      <c r="H15" s="69"/>
+      <c r="M15" s="33" t="s">
+        <v>205</v>
+      </c>
+      <c r="N15" s="72"/>
+      <c r="O15" s="33" t="s">
+        <v>205</v>
+      </c>
+      <c r="P15" s="46"/>
     </row>
     <row r="16">
-      <c r="A16" s="62">
+      <c r="A16" s="67">
         <v>14.0</v>
       </c>
-      <c r="B16" s="67"/>
-      <c r="G16" s="62">
+      <c r="B16" s="69"/>
+      <c r="G16" s="67">
         <v>14.0</v>
       </c>
-      <c r="M16" s="62" t="s">
-        <v>204</v>
-      </c>
-      <c r="N16" s="69"/>
-      <c r="O16" s="62" t="s">
-        <v>204</v>
-      </c>
+      <c r="H16" s="69"/>
+      <c r="M16" s="25" t="s">
+        <v>207</v>
+      </c>
+      <c r="N16" s="42"/>
+      <c r="O16" s="25" t="s">
+        <v>207</v>
+      </c>
+      <c r="P16" s="40"/>
     </row>
     <row r="17">
-      <c r="A17" s="62">
+      <c r="A17" s="67">
         <v>15.0</v>
       </c>
-      <c r="B17" s="67"/>
-      <c r="G17" s="62">
+      <c r="B17" s="69"/>
+      <c r="G17" s="67">
         <v>15.0</v>
       </c>
-      <c r="M17" s="62" t="s">
-        <v>207</v>
-      </c>
-      <c r="N17" s="65" t="s">
-        <v>247</v>
-      </c>
-      <c r="O17" s="62" t="s">
-        <v>207</v>
-      </c>
+      <c r="H17" s="69"/>
+      <c r="M17" s="33" t="s">
+        <v>210</v>
+      </c>
+      <c r="N17" s="33" t="s">
+        <v>250</v>
+      </c>
+      <c r="O17" s="33" t="s">
+        <v>210</v>
+      </c>
+      <c r="P17" s="46"/>
     </row>
     <row r="18">
-      <c r="A18" s="62">
+      <c r="A18" s="67">
         <v>16.0</v>
       </c>
-      <c r="B18" s="67"/>
-      <c r="G18" s="62">
+      <c r="B18" s="69"/>
+      <c r="G18" s="67">
         <v>16.0</v>
       </c>
-      <c r="M18" s="62" t="s">
-        <v>210</v>
-      </c>
-      <c r="N18" s="65" t="s">
-        <v>252</v>
-      </c>
-      <c r="O18" s="62" t="s">
-        <v>210</v>
-      </c>
+      <c r="H18" s="69"/>
+      <c r="M18" s="25" t="s">
+        <v>213</v>
+      </c>
+      <c r="N18" s="25" t="s">
+        <v>255</v>
+      </c>
+      <c r="O18" s="25" t="s">
+        <v>213</v>
+      </c>
+      <c r="P18" s="40"/>
     </row>
     <row r="19">
-      <c r="A19" s="62">
+      <c r="A19" s="67">
         <v>17.0</v>
       </c>
-      <c r="B19" s="67"/>
+      <c r="B19" s="69"/>
     </row>
     <row r="20">
-      <c r="A20" s="62">
+      <c r="A20" s="67">
         <v>18.0</v>
       </c>
-      <c r="B20" s="67"/>
+      <c r="B20" s="69"/>
     </row>
     <row r="21">
-      <c r="A21" s="62">
+      <c r="A21" s="67">
         <v>19.0</v>
       </c>
-      <c r="B21" s="67"/>
+      <c r="B21" s="69"/>
     </row>
     <row r="22">
-      <c r="A22" s="62">
+      <c r="A22" s="67">
         <v>20.0</v>
       </c>
-      <c r="B22" s="65" t="s">
-        <v>145</v>
+      <c r="B22" s="67" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="62">
+      <c r="A23" s="67">
         <v>21.0</v>
       </c>
-      <c r="B23" s="65" t="s">
-        <v>135</v>
+      <c r="B23" s="67" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="62">
+      <c r="A24" s="67">
         <v>22.0</v>
       </c>
-      <c r="B24" s="65" t="s">
-        <v>139</v>
+      <c r="B24" s="67" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="62">
+      <c r="A25" s="67">
         <v>23.0</v>
       </c>
-      <c r="B25" s="65" t="s">
-        <v>94</v>
+      <c r="B25" s="67" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="62">
+      <c r="A26" s="67">
         <v>24.0</v>
       </c>
-      <c r="B26" s="65" t="s">
-        <v>101</v>
+      <c r="B26" s="67" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -7473,13 +7478,10 @@
     <mergeCell ref="M1:P1"/>
   </mergeCells>
   <drawing r:id="rId1"/>
-  <tableParts count="6">
-    <tablePart r:id="rId8"/>
-    <tablePart r:id="rId9"/>
-    <tablePart r:id="rId10"/>
-    <tablePart r:id="rId11"/>
-    <tablePart r:id="rId12"/>
-    <tablePart r:id="rId13"/>
+  <tableParts count="3">
+    <tablePart r:id="rId5"/>
+    <tablePart r:id="rId6"/>
+    <tablePart r:id="rId7"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Documentation/LH Channel _ Patch list 2025 - Wing.xlsx
+++ b/Documentation/LH Channel _ Patch list 2025 - Wing.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="878" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="889" uniqueCount="294">
   <si>
     <t>Channel</t>
   </si>
@@ -105,264 +105,273 @@
     <t>Blue</t>
   </si>
   <si>
+    <t>Electric 1 L</t>
+  </si>
+  <si>
+    <t>Electric L</t>
+  </si>
+  <si>
+    <t>Bus 3 L</t>
+  </si>
+  <si>
+    <t>Misc Track</t>
+  </si>
+  <si>
+    <t>Main</t>
+  </si>
+  <si>
+    <t>Matrix 6 L</t>
+  </si>
+  <si>
+    <t>Kick Top</t>
+  </si>
+  <si>
+    <t>Local 2</t>
+  </si>
+  <si>
+    <t>Bus 2</t>
+  </si>
+  <si>
+    <t>Bass</t>
+  </si>
+  <si>
+    <t>Local 3-4</t>
+  </si>
+  <si>
+    <t>Drums R</t>
+  </si>
+  <si>
+    <t>Bus 1 R</t>
+  </si>
+  <si>
+    <t>White</t>
+  </si>
+  <si>
+    <t>Electric 1 R</t>
+  </si>
+  <si>
+    <t>Electric R</t>
+  </si>
+  <si>
+    <t>Bus 3 R</t>
+  </si>
+  <si>
+    <t>Matrix 6 R</t>
+  </si>
+  <si>
+    <t>Snare Top</t>
+  </si>
+  <si>
+    <t>Local 3</t>
+  </si>
+  <si>
+    <t>Bus 3</t>
+  </si>
+  <si>
+    <t>Electric</t>
+  </si>
+  <si>
+    <t>AES C 1-2</t>
+  </si>
+  <si>
+    <t>Bus 2 L</t>
+  </si>
+  <si>
+    <t>Vocals Mix L</t>
+  </si>
+  <si>
+    <t>Electric 2</t>
+  </si>
+  <si>
+    <t>Acoustic L</t>
+  </si>
+  <si>
+    <t>Bus 4 L</t>
+  </si>
+  <si>
+    <t>Drums Track</t>
+  </si>
+  <si>
+    <t>Snare Bottom</t>
+  </si>
+  <si>
+    <t>Local 4</t>
+  </si>
+  <si>
+    <t>Bus 4</t>
+  </si>
+  <si>
+    <t>Acoustic</t>
+  </si>
+  <si>
+    <t>AES C 3-4</t>
+  </si>
+  <si>
+    <t>Bus 2 R</t>
+  </si>
+  <si>
+    <t>Vocals Mix R</t>
+  </si>
+  <si>
+    <t>Acoustic 1</t>
+  </si>
+  <si>
+    <t>Acoustic R</t>
+  </si>
+  <si>
+    <t>Bus 4 R</t>
+  </si>
+  <si>
+    <t>Tom 1</t>
+  </si>
+  <si>
+    <t>Local 5</t>
+  </si>
+  <si>
+    <t>Bus 5</t>
+  </si>
+  <si>
+    <t>Keys</t>
+  </si>
+  <si>
+    <t>AES C 5-6</t>
+  </si>
+  <si>
+    <t>FOH TB</t>
+  </si>
+  <si>
+    <t>Acoustic 2 L</t>
+  </si>
+  <si>
+    <t>Keys L</t>
+  </si>
+  <si>
+    <t>Bus 5 L</t>
+  </si>
+  <si>
+    <t>Bass Track</t>
+  </si>
+  <si>
+    <t>Floor Tom</t>
+  </si>
+  <si>
+    <t>Local 6</t>
+  </si>
+  <si>
+    <t>Bus 6</t>
+  </si>
+  <si>
+    <t>Acoustic 2 R</t>
+  </si>
+  <si>
+    <t>Keys R</t>
+  </si>
+  <si>
+    <t>Bus 5 R</t>
+  </si>
+  <si>
+    <t>Hi Hat</t>
+  </si>
+  <si>
+    <t>Local 7</t>
+  </si>
+  <si>
+    <t>Bus 7</t>
+  </si>
+  <si>
+    <t>Front Fill</t>
+  </si>
+  <si>
+    <t>Matrix 7</t>
+  </si>
+  <si>
+    <t>Electric Track</t>
+  </si>
+  <si>
+    <t>OH</t>
+  </si>
+  <si>
+    <t>Local 8</t>
+  </si>
+  <si>
+    <t>Bus 8</t>
+  </si>
+  <si>
+    <t>Subwoofer</t>
+  </si>
+  <si>
+    <t>Matrix 8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Local 9 </t>
+  </si>
+  <si>
+    <t>Bus 9</t>
+  </si>
+  <si>
+    <t>Red</t>
+  </si>
+  <si>
+    <t>AES A 45</t>
+  </si>
+  <si>
+    <t>PA L</t>
+  </si>
+  <si>
+    <t>Local 9</t>
+  </si>
+  <si>
+    <t>Acoustic Track</t>
+  </si>
+  <si>
     <t>Electric 1</t>
   </si>
   <si>
-    <t>Electric L</t>
-  </si>
-  <si>
-    <t>Bus 3 L</t>
-  </si>
-  <si>
-    <t>Misc Track</t>
-  </si>
-  <si>
-    <t>Main</t>
-  </si>
-  <si>
-    <t>Matrix 6 L</t>
-  </si>
-  <si>
-    <t>Kick Top</t>
-  </si>
-  <si>
-    <t>Local 2</t>
-  </si>
-  <si>
-    <t>Bus 2</t>
-  </si>
-  <si>
-    <t>Bass</t>
-  </si>
-  <si>
-    <t>Local 3-4</t>
-  </si>
-  <si>
-    <t>Drums R</t>
-  </si>
-  <si>
-    <t>Bus 1 R</t>
-  </si>
-  <si>
-    <t>White</t>
-  </si>
-  <si>
-    <t>Electric 2</t>
-  </si>
-  <si>
-    <t>Electric R</t>
-  </si>
-  <si>
-    <t>Bus 3 R</t>
-  </si>
-  <si>
-    <t>Matrix 6 R</t>
-  </si>
-  <si>
-    <t>Snare Top</t>
-  </si>
-  <si>
-    <t>Local 3</t>
-  </si>
-  <si>
-    <t>Bus 3</t>
-  </si>
-  <si>
-    <t>Electric</t>
-  </si>
-  <si>
-    <t>AES C 1-2</t>
-  </si>
-  <si>
-    <t>Bus 2 L</t>
-  </si>
-  <si>
-    <t>Vocals Mix L</t>
-  </si>
-  <si>
-    <t>Acoustic 1</t>
-  </si>
-  <si>
-    <t>Acoustic L</t>
-  </si>
-  <si>
-    <t>Bus 4 L</t>
-  </si>
-  <si>
-    <t>Drums Track</t>
-  </si>
-  <si>
-    <t>Snare Bottom</t>
-  </si>
-  <si>
-    <t>Local 4</t>
-  </si>
-  <si>
-    <t>Bus 4</t>
-  </si>
-  <si>
-    <t>Acoustic</t>
-  </si>
-  <si>
-    <t>AES C 3-4</t>
-  </si>
-  <si>
-    <t>Bus 2 R</t>
-  </si>
-  <si>
-    <t>Vocals Mix R</t>
+    <t>Bus 10</t>
+  </si>
+  <si>
+    <t>Green</t>
+  </si>
+  <si>
+    <t>AES A 46</t>
+  </si>
+  <si>
+    <t>PA R</t>
+  </si>
+  <si>
+    <t>AES C 3</t>
+  </si>
+  <si>
+    <t>Bus 11</t>
+  </si>
+  <si>
+    <t>AES A 47</t>
+  </si>
+  <si>
+    <t>AES C 1</t>
+  </si>
+  <si>
+    <t>Keys Track</t>
+  </si>
+  <si>
+    <t>AES C 4</t>
+  </si>
+  <si>
+    <t>Bus 12</t>
+  </si>
+  <si>
+    <t>AES A 48</t>
+  </si>
+  <si>
+    <t>Sub</t>
+  </si>
+  <si>
+    <t>AES C 2</t>
   </si>
   <si>
     <t>Acoustic 2</t>
   </si>
   <si>
-    <t>Acoustic R</t>
-  </si>
-  <si>
-    <t>Bus 4 R</t>
-  </si>
-  <si>
-    <t>Tom 1</t>
-  </si>
-  <si>
-    <t>Local 5</t>
-  </si>
-  <si>
-    <t>Bus 5</t>
-  </si>
-  <si>
-    <t>Keys</t>
-  </si>
-  <si>
-    <t>AES C 5-6</t>
-  </si>
-  <si>
-    <t>FOH TB</t>
-  </si>
-  <si>
-    <t>Keys L</t>
-  </si>
-  <si>
-    <t>Bus 5 L</t>
-  </si>
-  <si>
-    <t>Bass Track</t>
-  </si>
-  <si>
-    <t>Floor Tom</t>
-  </si>
-  <si>
-    <t>Local 6</t>
-  </si>
-  <si>
-    <t>Bus 6</t>
-  </si>
-  <si>
-    <t>Keys R</t>
-  </si>
-  <si>
-    <t>Bus 5 R</t>
-  </si>
-  <si>
-    <t>Hi Hat</t>
-  </si>
-  <si>
-    <t>Local 7</t>
-  </si>
-  <si>
-    <t>Bus 7</t>
-  </si>
-  <si>
-    <t>Front Fill</t>
-  </si>
-  <si>
-    <t>Matrix 7</t>
-  </si>
-  <si>
-    <t>Electric Track</t>
-  </si>
-  <si>
-    <t>OH</t>
-  </si>
-  <si>
-    <t>Local 8</t>
-  </si>
-  <si>
-    <t>Bus 8</t>
-  </si>
-  <si>
-    <t>Subwoofer</t>
-  </si>
-  <si>
-    <t>Matrix 8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Local 9 </t>
-  </si>
-  <si>
-    <t>Bus 9</t>
-  </si>
-  <si>
-    <t>Red</t>
-  </si>
-  <si>
-    <t>AES A 45</t>
-  </si>
-  <si>
-    <t>PA L</t>
-  </si>
-  <si>
-    <t>Local 9</t>
-  </si>
-  <si>
-    <t>Acoustic Track</t>
-  </si>
-  <si>
-    <t>Bus 10</t>
-  </si>
-  <si>
-    <t>Green</t>
-  </si>
-  <si>
-    <t>AES A 46</t>
-  </si>
-  <si>
-    <t>PA R</t>
-  </si>
-  <si>
-    <t>AES C 3</t>
-  </si>
-  <si>
-    <t>Bus 11</t>
-  </si>
-  <si>
-    <t>AES A 47</t>
-  </si>
-  <si>
-    <t>Electric 1 R</t>
-  </si>
-  <si>
-    <t>AES C 1</t>
-  </si>
-  <si>
-    <t>Keys Track</t>
-  </si>
-  <si>
-    <t>AES C 4</t>
-  </si>
-  <si>
-    <t>Bus 12</t>
-  </si>
-  <si>
-    <t>AES A 48</t>
-  </si>
-  <si>
-    <t>Sub</t>
-  </si>
-  <si>
-    <t>AES C 2</t>
-  </si>
-  <si>
     <t>Bus 13</t>
   </si>
   <si>
@@ -393,9 +402,6 @@
     <t>AV L</t>
   </si>
   <si>
-    <t>Acoustic 2 L</t>
-  </si>
-  <si>
     <t>AES C 5</t>
   </si>
   <si>
@@ -411,9 +417,6 @@
     <t>AV R</t>
   </si>
   <si>
-    <t>Acoustic 2 R</t>
-  </si>
-  <si>
     <t>AES C 6</t>
   </si>
   <si>
@@ -738,9 +741,6 @@
     <t>Main 1 R</t>
   </si>
   <si>
-    <t>Electric 1 L</t>
-  </si>
-  <si>
     <t>AES 11</t>
   </si>
   <si>
@@ -888,7 +888,10 @@
     <t>Destination</t>
   </si>
   <si>
-    <t xml:space="preserve">Electric </t>
+    <t>Bass L</t>
+  </si>
+  <si>
+    <t>Bass R</t>
   </si>
   <si>
     <t xml:space="preserve"> AES/EBU</t>
@@ -1112,7 +1115,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="72">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1210,11 +1213,11 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="4" fillId="16" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="4" fillId="13" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="4" fillId="18" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="0" fillId="12" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="4" fillId="13" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="4" fillId="14" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="4" fillId="12" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -1263,9 +1266,6 @@
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="4" fillId="17" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
     <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="4" fillId="18" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
@@ -2172,16 +2172,16 @@
         <v>5.0</v>
       </c>
       <c r="W7" s="34" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X7" s="34" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y7" s="35">
         <v>5.0</v>
       </c>
       <c r="Z7" s="35" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA7" s="35">
         <v>5.0</v>
@@ -2193,16 +2193,16 @@
         <v>6.0</v>
       </c>
       <c r="B8" s="25" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D8" s="25" t="s">
         <v>21</v>
       </c>
       <c r="E8" s="25" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F8" s="42"/>
       <c r="G8" s="42"/>
@@ -2212,7 +2212,7 @@
         <v>6.0</v>
       </c>
       <c r="K8" s="25" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="L8" s="25">
         <v>6.0</v>
@@ -2227,31 +2227,31 @@
         <v>6.0</v>
       </c>
       <c r="R8" s="25" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="S8" s="25" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T8" s="25">
         <v>6.0</v>
       </c>
       <c r="U8" s="25" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="V8" s="25">
         <v>6.0</v>
       </c>
       <c r="W8" s="39" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="X8" s="39" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="Y8" s="25">
         <v>6.0</v>
       </c>
       <c r="Z8" s="25" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA8" s="25">
         <v>6.0</v>
@@ -2263,16 +2263,16 @@
         <v>7.0</v>
       </c>
       <c r="B9" s="27" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C9" s="27" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D9" s="27" t="s">
         <v>21</v>
       </c>
       <c r="E9" s="28" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F9" s="43"/>
       <c r="G9" s="43"/>
@@ -2282,16 +2282,16 @@
         <v>7.0</v>
       </c>
       <c r="K9" s="29" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="L9" s="30">
         <v>7.0</v>
       </c>
       <c r="M9" s="30" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="N9" s="30" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="O9" s="31">
         <v>7.0</v>
@@ -2301,25 +2301,27 @@
         <v>7.0</v>
       </c>
       <c r="R9" s="32" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="S9" s="32" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="T9" s="28">
         <v>7.0</v>
       </c>
-      <c r="U9" s="45"/>
+      <c r="U9" s="28" t="s">
+        <v>76</v>
+      </c>
       <c r="V9" s="33">
         <v>7.0</v>
       </c>
-      <c r="W9" s="46"/>
-      <c r="X9" s="46"/>
+      <c r="W9" s="45"/>
+      <c r="X9" s="45"/>
       <c r="Y9" s="35">
         <v>7.0</v>
       </c>
       <c r="Z9" s="35" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="AA9" s="35">
         <v>7.0</v>
@@ -2331,16 +2333,16 @@
         <v>8.0</v>
       </c>
       <c r="B10" s="25" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C10" s="25" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D10" s="25" t="s">
         <v>21</v>
       </c>
       <c r="E10" s="25" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F10" s="42"/>
       <c r="G10" s="42"/>
@@ -2350,16 +2352,16 @@
         <v>8.0</v>
       </c>
       <c r="K10" s="25" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="L10" s="25">
         <v>8.0</v>
       </c>
       <c r="M10" s="25" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="N10" s="25" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="O10" s="25">
         <v>8.0</v>
@@ -2369,15 +2371,17 @@
         <v>8.0</v>
       </c>
       <c r="R10" s="25" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="S10" s="25" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="T10" s="25">
         <v>8.0</v>
       </c>
-      <c r="U10" s="40"/>
+      <c r="U10" s="25" t="s">
+        <v>83</v>
+      </c>
       <c r="V10" s="25">
         <v>8.0</v>
       </c>
@@ -2387,7 +2391,7 @@
         <v>8.0</v>
       </c>
       <c r="Z10" s="25" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="AA10" s="25">
         <v>8.0</v>
@@ -2401,23 +2405,23 @@
       <c r="B11" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="C11" s="47" t="s">
-        <v>94</v>
+      <c r="C11" s="46" t="s">
+        <v>96</v>
       </c>
       <c r="D11" s="27" t="s">
         <v>26</v>
       </c>
       <c r="E11" s="28" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F11" s="28" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="G11" s="28" t="s">
         <v>24</v>
       </c>
       <c r="H11" s="28" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="I11" s="28" t="s">
         <v>21</v>
@@ -2432,7 +2436,7 @@
         <v>9.0</v>
       </c>
       <c r="P11" s="31" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="Q11" s="32">
         <v>9.0</v>
@@ -2441,17 +2445,17 @@
         <v>39</v>
       </c>
       <c r="S11" s="32" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="T11" s="28">
         <v>9.0</v>
       </c>
-      <c r="U11" s="45"/>
+      <c r="U11" s="47"/>
       <c r="Y11" s="35">
         <v>9.0</v>
       </c>
       <c r="Z11" s="35" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="AA11" s="35">
         <v>9.0</v>
@@ -2463,7 +2467,7 @@
         <v>10.0</v>
       </c>
       <c r="B12" s="25" t="s">
-        <v>30</v>
+        <v>103</v>
       </c>
       <c r="C12" s="25" t="s">
         <v>52</v>
@@ -2472,16 +2476,16 @@
         <v>21</v>
       </c>
       <c r="E12" s="25" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="F12" s="25" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="G12" s="25" t="s">
         <v>24</v>
       </c>
       <c r="H12" s="25" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="I12" s="25" t="s">
         <v>21</v>
@@ -2494,7 +2498,7 @@
         <v>10.0</v>
       </c>
       <c r="P12" s="25" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="Q12" s="25">
         <v>10.0</v>
@@ -2509,7 +2513,7 @@
         <v>10.0</v>
       </c>
       <c r="Z12" s="25" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="AA12" s="25">
         <v>10.0</v>
@@ -2521,16 +2525,16 @@
         <v>11.0</v>
       </c>
       <c r="B13" s="27" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="C13" s="27" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="D13" s="27" t="s">
         <v>21</v>
       </c>
       <c r="E13" s="28" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="F13" s="28" t="s">
         <v>29</v>
@@ -2539,7 +2543,7 @@
         <v>24</v>
       </c>
       <c r="H13" s="28" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="I13" s="28" t="s">
         <v>21</v>
@@ -2552,26 +2556,26 @@
         <v>11.0</v>
       </c>
       <c r="P13" s="31" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="Q13" s="32">
         <v>11.0</v>
       </c>
       <c r="R13" s="32" t="s">
-        <v>108</v>
+        <v>44</v>
       </c>
       <c r="S13" s="32" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="T13" s="28">
         <v>11.0</v>
       </c>
-      <c r="U13" s="45"/>
+      <c r="U13" s="47"/>
       <c r="Y13" s="35">
         <v>11.0</v>
       </c>
       <c r="Z13" s="35" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AA13" s="35">
         <v>11.0</v>
@@ -2583,16 +2587,16 @@
         <v>12.0</v>
       </c>
       <c r="B14" s="25" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="C14" s="25" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D14" s="25" t="s">
         <v>21</v>
       </c>
       <c r="E14" s="25" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F14" s="25" t="s">
         <v>43</v>
@@ -2601,7 +2605,7 @@
         <v>24</v>
       </c>
       <c r="H14" s="25" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="I14" s="25" t="s">
         <v>21</v>
@@ -2614,16 +2618,16 @@
         <v>12.0</v>
       </c>
       <c r="P14" s="25" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="Q14" s="25">
         <v>12.0</v>
       </c>
       <c r="R14" s="25" t="s">
-        <v>108</v>
+        <v>44</v>
       </c>
       <c r="S14" s="25" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="T14" s="25">
         <v>12.0</v>
@@ -2633,7 +2637,7 @@
         <v>12.0</v>
       </c>
       <c r="Z14" s="25" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AA14" s="25">
         <v>12.0</v>
@@ -2645,7 +2649,7 @@
         <v>13.0</v>
       </c>
       <c r="B15" s="27" t="s">
-        <v>66</v>
+        <v>118</v>
       </c>
       <c r="C15" s="27" t="s">
         <v>73</v>
@@ -2654,7 +2658,7 @@
         <v>26</v>
       </c>
       <c r="E15" s="28" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="F15" s="43"/>
       <c r="G15" s="43"/>
@@ -2668,26 +2672,26 @@
         <v>13.0</v>
       </c>
       <c r="P15" s="31" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="Q15" s="32">
         <v>13.0</v>
       </c>
       <c r="R15" s="32" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="S15" s="32" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="T15" s="28">
         <v>13.0</v>
       </c>
-      <c r="U15" s="45"/>
+      <c r="U15" s="47"/>
       <c r="Y15" s="35">
         <v>13.0</v>
       </c>
       <c r="Z15" s="35" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="AA15" s="35">
         <v>13.0</v>
@@ -2702,13 +2706,13 @@
         <v>72</v>
       </c>
       <c r="C16" s="25" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="D16" s="25" t="s">
         <v>26</v>
       </c>
       <c r="E16" s="25" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="F16" s="40"/>
       <c r="G16" s="40"/>
@@ -2722,16 +2726,16 @@
         <v>14.0</v>
       </c>
       <c r="P16" s="25" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="Q16" s="25">
         <v>14.0</v>
       </c>
       <c r="R16" s="25" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="S16" s="25" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="T16" s="25">
         <v>14.0</v>
@@ -2741,7 +2745,7 @@
         <v>14.0</v>
       </c>
       <c r="Z16" s="25" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="AA16" s="25">
         <v>14.0</v>
@@ -2756,15 +2760,15 @@
       <c r="C17" s="49"/>
       <c r="D17" s="49"/>
       <c r="E17" s="28" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="F17" s="28" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="G17" s="28" t="s">
-        <v>124</v>
-      </c>
-      <c r="H17" s="45"/>
+        <v>127</v>
+      </c>
+      <c r="H17" s="47"/>
       <c r="I17" s="28" t="s">
         <v>26</v>
       </c>
@@ -2776,26 +2780,26 @@
         <v>15.0</v>
       </c>
       <c r="P17" s="31" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="Q17" s="32">
         <v>15.0</v>
       </c>
       <c r="R17" s="32" t="s">
-        <v>126</v>
+        <v>75</v>
       </c>
       <c r="S17" s="32" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="T17" s="28">
         <v>15.0</v>
       </c>
-      <c r="U17" s="45"/>
+      <c r="U17" s="47"/>
       <c r="Y17" s="35">
         <v>15.0</v>
       </c>
       <c r="Z17" s="35" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AA17" s="35">
         <v>15.0</v>
@@ -2810,13 +2814,13 @@
       <c r="C18" s="40"/>
       <c r="D18" s="40"/>
       <c r="E18" s="25" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F18" s="25" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="G18" s="25" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="H18" s="40"/>
       <c r="I18" s="25" t="s">
@@ -2830,16 +2834,16 @@
         <v>16.0</v>
       </c>
       <c r="P18" s="25" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="Q18" s="25">
         <v>16.0</v>
       </c>
       <c r="R18" s="38" t="s">
-        <v>132</v>
+        <v>82</v>
       </c>
       <c r="S18" s="25" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="T18" s="25">
         <v>16.0</v>
@@ -2849,7 +2853,7 @@
         <v>16.0</v>
       </c>
       <c r="Z18" s="25" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AA18" s="25">
         <v>16.0</v>
@@ -2864,12 +2868,12 @@
       <c r="C19" s="49"/>
       <c r="D19" s="49"/>
       <c r="E19" s="28" t="s">
-        <v>134</v>
-      </c>
-      <c r="F19" s="45"/>
-      <c r="G19" s="45"/>
-      <c r="H19" s="45"/>
-      <c r="I19" s="45"/>
+        <v>135</v>
+      </c>
+      <c r="F19" s="47"/>
+      <c r="G19" s="47"/>
+      <c r="H19" s="47"/>
+      <c r="I19" s="47"/>
       <c r="J19" s="29">
         <v>17.0</v>
       </c>
@@ -2882,16 +2886,16 @@
         <v>17.0</v>
       </c>
       <c r="R19" s="32" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="S19" s="32" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Y19" s="35">
         <v>17.0</v>
       </c>
       <c r="Z19" s="35" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AA19" s="35">
         <v>17.0</v>
@@ -2903,14 +2907,14 @@
         <v>18.0</v>
       </c>
       <c r="B20" s="25" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C20" s="25" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D20" s="40"/>
       <c r="E20" s="25" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F20" s="40"/>
       <c r="G20" s="40"/>
@@ -2928,16 +2932,16 @@
         <v>18.0</v>
       </c>
       <c r="R20" s="25" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="S20" s="25" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Y20" s="25">
         <v>18.0</v>
       </c>
       <c r="Z20" s="25" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AA20" s="25">
         <v>18.0</v>
@@ -2949,19 +2953,19 @@
         <v>19.0</v>
       </c>
       <c r="B21" s="27" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C21" s="27" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D21" s="49"/>
       <c r="E21" s="28" t="s">
-        <v>144</v>
-      </c>
-      <c r="F21" s="45"/>
-      <c r="G21" s="45"/>
-      <c r="H21" s="45"/>
-      <c r="I21" s="45"/>
+        <v>145</v>
+      </c>
+      <c r="F21" s="47"/>
+      <c r="G21" s="47"/>
+      <c r="H21" s="47"/>
+      <c r="I21" s="47"/>
       <c r="J21" s="29">
         <v>19.0</v>
       </c>
@@ -2974,16 +2978,16 @@
         <v>19.0</v>
       </c>
       <c r="R21" s="32" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="S21" s="32" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Y21" s="35">
         <v>19.0</v>
       </c>
       <c r="Z21" s="35" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AA21" s="35">
         <v>19.0</v>
@@ -2995,14 +2999,14 @@
         <v>20.0</v>
       </c>
       <c r="B22" s="25" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C22" s="25" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D22" s="40"/>
       <c r="E22" s="25" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F22" s="40"/>
       <c r="G22" s="40"/>
@@ -3012,7 +3016,7 @@
         <v>20.0</v>
       </c>
       <c r="K22" s="25" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="O22" s="25">
         <v>20.0</v>
@@ -3022,16 +3026,16 @@
         <v>20.0</v>
       </c>
       <c r="R22" s="25" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="S22" s="25" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Y22" s="25">
         <v>20.0</v>
       </c>
       <c r="Z22" s="25" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AA22" s="25">
         <v>20.0</v>
@@ -3043,24 +3047,24 @@
         <v>21.0</v>
       </c>
       <c r="B23" s="27" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C23" s="27" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D23" s="49"/>
       <c r="E23" s="28" t="s">
-        <v>151</v>
-      </c>
-      <c r="F23" s="45"/>
-      <c r="G23" s="45"/>
-      <c r="H23" s="45"/>
-      <c r="I23" s="45"/>
+        <v>152</v>
+      </c>
+      <c r="F23" s="47"/>
+      <c r="G23" s="47"/>
+      <c r="H23" s="47"/>
+      <c r="I23" s="47"/>
       <c r="J23" s="29">
         <v>21.0</v>
       </c>
       <c r="K23" s="29" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="O23" s="31">
         <v>21.0</v>
@@ -3070,10 +3074,10 @@
         <v>21.0</v>
       </c>
       <c r="R23" s="32" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="S23" s="32" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Y23" s="35">
         <v>21.0</v>
@@ -3092,11 +3096,11 @@
         <v>29</v>
       </c>
       <c r="C24" s="25" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D24" s="40"/>
       <c r="E24" s="25" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F24" s="40"/>
       <c r="G24" s="40"/>
@@ -3106,7 +3110,7 @@
         <v>22.0</v>
       </c>
       <c r="K24" s="25" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="O24" s="25">
         <v>22.0</v>
@@ -3116,10 +3120,10 @@
         <v>22.0</v>
       </c>
       <c r="R24" s="25" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="S24" s="25" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Y24" s="25">
         <v>22.0</v>
@@ -3138,21 +3142,21 @@
         <v>43</v>
       </c>
       <c r="C25" s="27" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D25" s="49"/>
       <c r="E25" s="28" t="s">
-        <v>155</v>
-      </c>
-      <c r="F25" s="45"/>
-      <c r="G25" s="45"/>
-      <c r="H25" s="45"/>
-      <c r="I25" s="45"/>
+        <v>156</v>
+      </c>
+      <c r="F25" s="47"/>
+      <c r="G25" s="47"/>
+      <c r="H25" s="47"/>
+      <c r="I25" s="47"/>
       <c r="J25" s="29">
         <v>23.0</v>
       </c>
       <c r="K25" s="29" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="O25" s="31">
         <v>23.0</v>
@@ -3180,7 +3184,7 @@
       <c r="C26" s="40"/>
       <c r="D26" s="40"/>
       <c r="E26" s="25" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F26" s="40"/>
       <c r="G26" s="40"/>
@@ -3190,7 +3194,7 @@
         <v>24.0</v>
       </c>
       <c r="K26" s="25" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="O26" s="25">
         <v>24.0</v>
@@ -3200,10 +3204,10 @@
         <v>24.0</v>
       </c>
       <c r="R26" s="25" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="S26" s="25" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Y26" s="25">
         <v>24.0</v>
@@ -3222,12 +3226,12 @@
       <c r="C27" s="49"/>
       <c r="D27" s="49"/>
       <c r="E27" s="28" t="s">
-        <v>158</v>
-      </c>
-      <c r="F27" s="45"/>
-      <c r="G27" s="45"/>
-      <c r="H27" s="45"/>
-      <c r="I27" s="45"/>
+        <v>159</v>
+      </c>
+      <c r="F27" s="47"/>
+      <c r="G27" s="47"/>
+      <c r="H27" s="47"/>
+      <c r="I27" s="47"/>
       <c r="O27" s="31">
         <v>25.0</v>
       </c>
@@ -3239,7 +3243,7 @@
         <v>33</v>
       </c>
       <c r="S27" s="32" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Y27" s="35">
         <v>25.0</v>
@@ -3258,16 +3262,16 @@
       <c r="C28" s="40"/>
       <c r="D28" s="40"/>
       <c r="E28" s="25" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F28" s="25" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G28" s="25" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H28" s="25" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="I28" s="25" t="s">
         <v>26</v>
@@ -3283,7 +3287,7 @@
         <v>33</v>
       </c>
       <c r="S28" s="25" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Y28" s="25">
         <v>26.0</v>
@@ -3302,16 +3306,16 @@
       <c r="C29" s="49"/>
       <c r="D29" s="49"/>
       <c r="E29" s="28" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F29" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="G29" s="28" t="s">
+        <v>163</v>
+      </c>
+      <c r="H29" s="28" t="s">
         <v>86</v>
-      </c>
-      <c r="G29" s="28" t="s">
-        <v>162</v>
-      </c>
-      <c r="H29" s="28" t="s">
-        <v>84</v>
       </c>
       <c r="I29" s="28" t="s">
         <v>21</v>
@@ -3327,7 +3331,7 @@
         <v>58</v>
       </c>
       <c r="S29" s="32" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Y29" s="35">
         <v>27.0</v>
@@ -3346,22 +3350,22 @@
         <v>33</v>
       </c>
       <c r="C30" s="25" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D30" s="25" t="s">
         <v>26</v>
       </c>
       <c r="E30" s="25" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F30" s="25" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="G30" s="25" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H30" s="25" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="I30" s="25" t="s">
         <v>21</v>
@@ -3377,7 +3381,7 @@
         <v>58</v>
       </c>
       <c r="S30" s="25" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Y30" s="25">
         <v>28.0</v>
@@ -3396,7 +3400,7 @@
         <v>58</v>
       </c>
       <c r="C31" s="27" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D31" s="27" t="s">
         <v>26</v>
@@ -3414,10 +3418,10 @@
         <v>29.0</v>
       </c>
       <c r="R31" s="32" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S31" s="32" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Y31" s="35">
         <v>29.0</v>
@@ -3433,10 +3437,10 @@
         <v>30.0</v>
       </c>
       <c r="B32" s="25" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C32" s="25" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D32" s="25" t="s">
         <v>26</v>
@@ -3454,10 +3458,10 @@
         <v>30.0</v>
       </c>
       <c r="R32" s="25" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S32" s="25" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Y32" s="25">
         <v>30.0</v>
@@ -3473,10 +3477,10 @@
         <v>31.0</v>
       </c>
       <c r="B33" s="27" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C33" s="27" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D33" s="27" t="s">
         <v>26</v>
@@ -3494,10 +3498,10 @@
         <v>31.0</v>
       </c>
       <c r="R33" s="32" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="S33" s="32" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Y33" s="35">
         <v>31.0</v>
@@ -3513,10 +3517,10 @@
         <v>32.0</v>
       </c>
       <c r="B34" s="25" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C34" s="25" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D34" s="25" t="s">
         <v>26</v>
@@ -3534,10 +3538,10 @@
         <v>32.0</v>
       </c>
       <c r="R34" s="25" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="S34" s="25" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Y34" s="25">
         <v>32.0</v>
@@ -3553,10 +3557,10 @@
         <v>33.0</v>
       </c>
       <c r="B35" s="27" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C35" s="27" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D35" s="27" t="s">
         <v>26</v>
@@ -3574,10 +3578,10 @@
         <v>33.0</v>
       </c>
       <c r="R35" s="32" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="S35" s="32" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="36">
@@ -3585,10 +3589,10 @@
         <v>34.0</v>
       </c>
       <c r="B36" s="25" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="C36" s="25" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D36" s="25" t="s">
         <v>26</v>
@@ -3606,10 +3610,10 @@
         <v>34.0</v>
       </c>
       <c r="R36" s="25" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="S36" s="25" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="37">
@@ -3617,10 +3621,10 @@
         <v>35.0</v>
       </c>
       <c r="B37" s="27" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C37" s="27" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D37" s="27" t="s">
         <v>26</v>
@@ -3638,10 +3642,10 @@
         <v>35.0</v>
       </c>
       <c r="R37" s="32" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="S37" s="32" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="38">
@@ -3649,10 +3653,10 @@
         <v>36.0</v>
       </c>
       <c r="B38" s="25" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C38" s="25" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D38" s="25" t="s">
         <v>26</v>
@@ -3670,10 +3674,10 @@
         <v>36.0</v>
       </c>
       <c r="R38" s="25" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="S38" s="25" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="39">
@@ -3681,10 +3685,10 @@
         <v>37.0</v>
       </c>
       <c r="B39" s="27" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C39" s="27" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D39" s="27" t="s">
         <v>21</v>
@@ -3702,10 +3706,10 @@
         <v>37.0</v>
       </c>
       <c r="R39" s="32" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="S39" s="32" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="40">
@@ -3713,10 +3717,10 @@
         <v>38.0</v>
       </c>
       <c r="B40" s="25" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C40" s="25" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D40" s="25" t="s">
         <v>21</v>
@@ -3734,10 +3738,10 @@
         <v>38.0</v>
       </c>
       <c r="R40" s="25" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="S40" s="25" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="41">
@@ -3745,10 +3749,10 @@
         <v>39.0</v>
       </c>
       <c r="B41" s="27" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C41" s="27" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D41" s="27" t="s">
         <v>21</v>
@@ -3766,10 +3770,10 @@
         <v>39.0</v>
       </c>
       <c r="R41" s="32" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="S41" s="32" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="42">
@@ -3780,7 +3784,7 @@
         <v>74</v>
       </c>
       <c r="C42" s="25" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D42" s="25" t="s">
         <v>21</v>
@@ -3798,21 +3802,21 @@
         <v>40.0</v>
       </c>
       <c r="R42" s="25" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="S42" s="25" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="27" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B43" s="27" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C43" s="27" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D43" s="49"/>
       <c r="O43" s="31">
@@ -3823,21 +3827,21 @@
         <v>41.0</v>
       </c>
       <c r="R43" s="32" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="S43" s="32" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="25" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B44" s="25" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C44" s="25" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D44" s="25" t="s">
         <v>26</v>
@@ -3850,21 +3854,21 @@
         <v>42.0</v>
       </c>
       <c r="R44" s="25" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="S44" s="25" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="27" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B45" s="27" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C45" s="27" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D45" s="27" t="s">
         <v>26</v>
@@ -3877,15 +3881,15 @@
         <v>43.0</v>
       </c>
       <c r="R45" s="32" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="S45" s="32" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="25" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B46" s="40"/>
       <c r="C46" s="40"/>
@@ -3898,15 +3902,15 @@
         <v>44.0</v>
       </c>
       <c r="R46" s="25" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="S46" s="25" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="27" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B47" s="49"/>
       <c r="C47" s="49"/>
@@ -3919,21 +3923,21 @@
         <v>45.0</v>
       </c>
       <c r="R47" s="32" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="S47" s="32" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="25" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B48" s="25" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C48" s="25" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D48" s="25" t="s">
         <v>26</v>
@@ -3946,21 +3950,21 @@
         <v>46.0</v>
       </c>
       <c r="R48" s="25" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="S48" s="25" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="27" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B49" s="27" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C49" s="27" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D49" s="27" t="s">
         <v>21</v>
@@ -3978,21 +3982,21 @@
         <v>47.0</v>
       </c>
       <c r="R49" s="32" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="S49" s="32" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="25" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B50" s="25" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C50" s="25" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D50" s="25" t="s">
         <v>21</v>
@@ -4010,10 +4014,10 @@
         <v>48.0</v>
       </c>
       <c r="R50" s="25" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="S50" s="25" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -4085,11 +4089,11 @@
       <c r="M1" s="10"/>
       <c r="N1" s="11"/>
       <c r="O1" s="12" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="P1" s="13"/>
       <c r="Q1" s="14" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="R1" s="15"/>
       <c r="S1" s="16"/>
@@ -4102,11 +4106,11 @@
       </c>
       <c r="W1" s="21"/>
       <c r="X1" s="17" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Y1" s="18"/>
       <c r="Z1" s="4" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AA1" s="5"/>
       <c r="AB1" s="6"/>
@@ -4205,7 +4209,7 @@
         <v>19</v>
       </c>
       <c r="C3" s="27" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D3" s="27" t="s">
         <v>21</v>
@@ -4217,7 +4221,7 @@
         <v>23</v>
       </c>
       <c r="G3" s="54" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="H3" s="55"/>
       <c r="I3" s="54" t="s">
@@ -4233,10 +4237,10 @@
         <v>1.0</v>
       </c>
       <c r="M3" s="30" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="N3" s="30" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="O3" s="31">
         <v>1.0</v>
@@ -4265,7 +4269,7 @@
         <v>1.0</v>
       </c>
       <c r="Y3" s="33" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="Z3" s="28">
         <v>1.0</v>
@@ -4274,7 +4278,7 @@
         <v>19</v>
       </c>
       <c r="AB3" s="28" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="4">
@@ -4285,7 +4289,7 @@
         <v>36</v>
       </c>
       <c r="C4" s="25" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D4" s="25" t="s">
         <v>21</v>
@@ -4294,13 +4298,13 @@
         <v>38</v>
       </c>
       <c r="F4" s="25" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="G4" s="25" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="H4" s="25" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="I4" s="25" t="s">
         <v>26</v>
@@ -4315,10 +4319,10 @@
         <v>2.0</v>
       </c>
       <c r="M4" s="25" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="N4" s="25" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="O4" s="25">
         <v>2.0</v>
@@ -4347,7 +4351,7 @@
         <v>2.0</v>
       </c>
       <c r="Y4" s="25" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="Z4" s="25">
         <v>2.0</v>
@@ -4356,7 +4360,7 @@
         <v>36</v>
       </c>
       <c r="AB4" s="25" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="5">
@@ -4367,7 +4371,7 @@
         <v>48</v>
       </c>
       <c r="C5" s="27" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D5" s="27" t="s">
         <v>21</v>
@@ -4376,13 +4380,13 @@
         <v>50</v>
       </c>
       <c r="F5" s="54" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="G5" s="54" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="H5" s="54" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="I5" s="54" t="s">
         <v>26</v>
@@ -4395,10 +4399,10 @@
         <v>3.0</v>
       </c>
       <c r="M5" s="30" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="N5" s="30" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="O5" s="31">
         <v>3.0</v>
@@ -4427,7 +4431,7 @@
         <v>3.0</v>
       </c>
       <c r="Y5" s="33" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="Z5" s="28">
         <v>3.0</v>
@@ -4436,7 +4440,7 @@
         <v>48</v>
       </c>
       <c r="AB5" s="28" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="6">
@@ -4447,7 +4451,7 @@
         <v>59</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D6" s="25" t="s">
         <v>21</v>
@@ -4467,10 +4471,10 @@
         <v>4.0</v>
       </c>
       <c r="M6" s="25" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="N6" s="25" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="O6" s="25">
         <v>4.0</v>
@@ -4499,7 +4503,7 @@
         <v>4.0</v>
       </c>
       <c r="Y6" s="25" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="Z6" s="25">
         <v>4.0</v>
@@ -4508,7 +4512,7 @@
         <v>59</v>
       </c>
       <c r="AB6" s="25" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="7">
@@ -4519,7 +4523,7 @@
         <v>69</v>
       </c>
       <c r="C7" s="27" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D7" s="27" t="s">
         <v>21</v>
@@ -4553,7 +4557,7 @@
         <v>74</v>
       </c>
       <c r="S7" s="32" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="T7" s="35">
         <v>5.0</v>
@@ -4566,7 +4570,7 @@
       <c r="X7" s="33">
         <v>5.0</v>
       </c>
-      <c r="Y7" s="46"/>
+      <c r="Y7" s="45"/>
       <c r="Z7" s="28">
         <v>5.0</v>
       </c>
@@ -4574,7 +4578,7 @@
         <v>69</v>
       </c>
       <c r="AB7" s="28" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="8">
@@ -4582,16 +4586,16 @@
         <v>6.0</v>
       </c>
       <c r="B8" s="25" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D8" s="25" t="s">
         <v>21</v>
       </c>
       <c r="E8" s="25" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F8" s="42"/>
       <c r="G8" s="42"/>
@@ -4610,7 +4614,7 @@
         <v>6.0</v>
       </c>
       <c r="P8" s="25" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Q8" s="25">
         <v>6.0</v>
@@ -4633,10 +4637,10 @@
         <v>6.0</v>
       </c>
       <c r="AA8" s="25" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AB8" s="25" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="9">
@@ -4644,16 +4648,16 @@
         <v>7.0</v>
       </c>
       <c r="B9" s="27" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C9" s="27" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D9" s="27" t="s">
         <v>21</v>
       </c>
       <c r="E9" s="54" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F9" s="55"/>
       <c r="G9" s="55"/>
@@ -4672,7 +4676,7 @@
         <v>7.0</v>
       </c>
       <c r="P9" s="31" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="Q9" s="32">
         <v>7.0</v>
@@ -4690,15 +4694,15 @@
       <c r="X9" s="33">
         <v>7.0</v>
       </c>
-      <c r="Y9" s="46"/>
+      <c r="Y9" s="45"/>
       <c r="Z9" s="28">
         <v>7.0</v>
       </c>
       <c r="AA9" s="28" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="AB9" s="28" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="10">
@@ -4706,16 +4710,16 @@
         <v>8.0</v>
       </c>
       <c r="B10" s="25" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C10" s="25" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D10" s="25" t="s">
         <v>21</v>
       </c>
       <c r="E10" s="25" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F10" s="42"/>
       <c r="G10" s="42"/>
@@ -4736,7 +4740,7 @@
         <v>8.0</v>
       </c>
       <c r="P10" s="25" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="Q10" s="25">
         <v>8.0</v>
@@ -4759,10 +4763,10 @@
         <v>8.0</v>
       </c>
       <c r="AA10" s="25" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="AB10" s="25" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="11">
@@ -4773,30 +4777,30 @@
         <v>39</v>
       </c>
       <c r="C11" s="27" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D11" s="27" t="s">
         <v>21</v>
       </c>
       <c r="E11" s="54" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F11" s="55"/>
       <c r="G11" s="55"/>
       <c r="H11" s="55"/>
       <c r="I11" s="55"/>
       <c r="J11" s="29" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="K11" s="57"/>
       <c r="L11" s="30" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="M11" s="30" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="N11" s="30" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="O11" s="31">
         <v>9.0</v>
@@ -4808,10 +4812,10 @@
         <v>9.0</v>
       </c>
       <c r="R11" s="32" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="S11" s="32" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="T11" s="35">
         <v>9.0</v>
@@ -4824,7 +4828,7 @@
       <c r="X11" s="33">
         <v>9.0</v>
       </c>
-      <c r="Y11" s="46"/>
+      <c r="Y11" s="45"/>
       <c r="Z11" s="28">
         <v>9.0</v>
       </c>
@@ -4832,7 +4836,7 @@
         <v>39</v>
       </c>
       <c r="AB11" s="28" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="12">
@@ -4840,33 +4844,33 @@
         <v>10.0</v>
       </c>
       <c r="B12" s="25" t="s">
-        <v>30</v>
+        <v>103</v>
       </c>
       <c r="C12" s="25" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D12" s="25" t="s">
         <v>26</v>
       </c>
       <c r="E12" s="25" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="F12" s="42"/>
       <c r="G12" s="42"/>
       <c r="H12" s="42"/>
       <c r="I12" s="42"/>
       <c r="J12" s="25" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="K12" s="42"/>
       <c r="L12" s="25" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="M12" s="25" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="N12" s="25" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="O12" s="25">
         <v>10.0</v>
@@ -4876,10 +4880,10 @@
         <v>10.0</v>
       </c>
       <c r="R12" s="25" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="S12" s="25" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="T12" s="25">
         <v>10.0</v>
@@ -4897,7 +4901,7 @@
         <v>10.0</v>
       </c>
       <c r="AA12" s="25" t="s">
-        <v>241</v>
+        <v>30</v>
       </c>
       <c r="AB12" s="25" t="s">
         <v>242</v>
@@ -4908,7 +4912,7 @@
         <v>11.0</v>
       </c>
       <c r="B13" s="27" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="C13" s="27" t="s">
         <v>243</v>
@@ -4917,18 +4921,18 @@
         <v>21</v>
       </c>
       <c r="E13" s="54" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="F13" s="55"/>
       <c r="G13" s="55"/>
       <c r="H13" s="55"/>
       <c r="I13" s="55"/>
       <c r="J13" s="29" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="K13" s="57"/>
       <c r="L13" s="30" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="M13" s="58"/>
       <c r="N13" s="58"/>
@@ -4936,16 +4940,16 @@
         <v>11.0</v>
       </c>
       <c r="P13" s="31" t="s">
-        <v>108</v>
+        <v>44</v>
       </c>
       <c r="Q13" s="32">
         <v>11.0</v>
       </c>
       <c r="R13" s="32" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="S13" s="32" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="T13" s="35">
         <v>11.0</v>
@@ -4958,12 +4962,12 @@
       <c r="X13" s="33">
         <v>11.0</v>
       </c>
-      <c r="Y13" s="46"/>
+      <c r="Y13" s="45"/>
       <c r="Z13" s="28">
         <v>11.0</v>
       </c>
       <c r="AA13" s="28" t="s">
-        <v>108</v>
+        <v>44</v>
       </c>
       <c r="AB13" s="28" t="s">
         <v>244</v>
@@ -4974,7 +4978,7 @@
         <v>12.0</v>
       </c>
       <c r="B14" s="25" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="C14" s="25" t="s">
         <v>245</v>
@@ -4983,18 +4987,18 @@
         <v>21</v>
       </c>
       <c r="E14" s="25" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F14" s="42"/>
       <c r="G14" s="42"/>
       <c r="H14" s="42"/>
       <c r="I14" s="42"/>
       <c r="J14" s="25" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="K14" s="42"/>
       <c r="L14" s="25" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="M14" s="42"/>
       <c r="N14" s="42"/>
@@ -5002,16 +5006,16 @@
         <v>12.0</v>
       </c>
       <c r="P14" s="25" t="s">
-        <v>108</v>
+        <v>44</v>
       </c>
       <c r="Q14" s="25">
         <v>12.0</v>
       </c>
       <c r="R14" s="25" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="S14" s="25" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="T14" s="25">
         <v>12.0</v>
@@ -5029,7 +5033,7 @@
         <v>12.0</v>
       </c>
       <c r="AA14" s="25" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AB14" s="25" t="s">
         <v>243</v>
@@ -5040,7 +5044,7 @@
         <v>13.0</v>
       </c>
       <c r="B15" s="27" t="s">
-        <v>66</v>
+        <v>118</v>
       </c>
       <c r="C15" s="27" t="s">
         <v>246</v>
@@ -5049,18 +5053,18 @@
         <v>26</v>
       </c>
       <c r="E15" s="54" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="F15" s="55"/>
       <c r="G15" s="55"/>
       <c r="H15" s="55"/>
       <c r="I15" s="55"/>
       <c r="J15" s="29" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="K15" s="57"/>
       <c r="L15" s="30" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="M15" s="58"/>
       <c r="N15" s="58"/>
@@ -5068,13 +5072,13 @@
         <v>13.0</v>
       </c>
       <c r="P15" s="31" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="Q15" s="32">
         <v>13.0</v>
       </c>
       <c r="R15" s="32" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="S15" s="32" t="s">
         <v>247</v>
@@ -5090,12 +5094,12 @@
       <c r="X15" s="33">
         <v>13.0</v>
       </c>
-      <c r="Y15" s="46"/>
+      <c r="Y15" s="45"/>
       <c r="Z15" s="28">
         <v>13.0</v>
       </c>
       <c r="AA15" s="28" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="AB15" s="28" t="s">
         <v>245</v>
@@ -5115,18 +5119,18 @@
         <v>26</v>
       </c>
       <c r="E16" s="25" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="F16" s="40"/>
       <c r="G16" s="40"/>
       <c r="H16" s="40"/>
       <c r="I16" s="40"/>
       <c r="J16" s="25" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="K16" s="42"/>
       <c r="L16" s="25" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="M16" s="42"/>
       <c r="N16" s="42"/>
@@ -5134,13 +5138,13 @@
         <v>14.0</v>
       </c>
       <c r="P16" s="25" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="Q16" s="25">
         <v>14.0</v>
       </c>
       <c r="R16" s="25" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="S16" s="25" t="s">
         <v>249</v>
@@ -5171,20 +5175,20 @@
       <c r="C17" s="49"/>
       <c r="D17" s="49"/>
       <c r="E17" s="54" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="F17" s="59"/>
       <c r="G17" s="59"/>
       <c r="H17" s="59"/>
       <c r="I17" s="59"/>
       <c r="J17" s="29" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="K17" s="29" t="s">
         <v>250</v>
       </c>
       <c r="L17" s="30" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="M17" s="30" t="s">
         <v>251</v>
@@ -5196,13 +5200,13 @@
         <v>15.0</v>
       </c>
       <c r="P17" s="31" t="s">
-        <v>126</v>
+        <v>75</v>
       </c>
       <c r="Q17" s="32">
         <v>15.0</v>
       </c>
       <c r="R17" s="32" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="S17" s="32" t="s">
         <v>253</v>
@@ -5218,12 +5222,12 @@
       <c r="X17" s="33">
         <v>15.0</v>
       </c>
-      <c r="Y17" s="46"/>
+      <c r="Y17" s="45"/>
       <c r="Z17" s="28">
         <v>15.0</v>
       </c>
       <c r="AA17" s="28" t="s">
-        <v>126</v>
+        <v>75</v>
       </c>
       <c r="AB17" s="28" t="s">
         <v>254</v>
@@ -5237,20 +5241,20 @@
       <c r="C18" s="40"/>
       <c r="D18" s="40"/>
       <c r="E18" s="25" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F18" s="40"/>
       <c r="G18" s="40"/>
       <c r="H18" s="40"/>
       <c r="I18" s="40"/>
       <c r="J18" s="25" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="K18" s="25" t="s">
         <v>255</v>
       </c>
       <c r="L18" s="25" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="M18" s="25" t="s">
         <v>256</v>
@@ -5262,13 +5266,13 @@
         <v>16.0</v>
       </c>
       <c r="P18" s="38" t="s">
-        <v>132</v>
+        <v>82</v>
       </c>
       <c r="Q18" s="25">
         <v>16.0</v>
       </c>
       <c r="R18" s="25" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="S18" s="25" t="s">
         <v>257</v>
@@ -5289,7 +5293,7 @@
         <v>16.0</v>
       </c>
       <c r="AA18" s="25" t="s">
-        <v>132</v>
+        <v>82</v>
       </c>
       <c r="AB18" s="25" t="s">
         <v>258</v>
@@ -5300,23 +5304,23 @@
         <v>17.0</v>
       </c>
       <c r="B19" s="27" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C19" s="27" t="s">
         <v>259</v>
       </c>
       <c r="D19" s="49"/>
       <c r="E19" s="54" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F19" s="54" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G19" s="54" t="s">
         <v>260</v>
       </c>
       <c r="H19" s="54" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="I19" s="54" t="s">
         <v>26</v>
@@ -5327,7 +5331,7 @@
         <v>17.0</v>
       </c>
       <c r="P19" s="31" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Q19" s="32">
         <v>17.0</v>
@@ -5345,12 +5349,12 @@
       <c r="X19" s="33">
         <v>17.0</v>
       </c>
-      <c r="Y19" s="46"/>
+      <c r="Y19" s="45"/>
       <c r="Z19" s="28">
         <v>17.0</v>
       </c>
       <c r="AA19" s="28" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB19" s="28" t="s">
         <v>261</v>
@@ -5361,23 +5365,23 @@
         <v>18.0</v>
       </c>
       <c r="B20" s="25" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C20" s="25" t="s">
         <v>262</v>
       </c>
       <c r="D20" s="40"/>
       <c r="E20" s="25" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F20" s="25" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G20" s="25" t="s">
         <v>260</v>
       </c>
       <c r="H20" s="25" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="I20" s="25" t="s">
         <v>21</v>
@@ -5386,7 +5390,7 @@
         <v>18.0</v>
       </c>
       <c r="P20" s="25" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="Q20" s="25">
         <v>18.0</v>
@@ -5409,7 +5413,7 @@
         <v>18.0</v>
       </c>
       <c r="AA20" s="25" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="AB20" s="25" t="s">
         <v>263</v>
@@ -5420,23 +5424,23 @@
         <v>19.0</v>
       </c>
       <c r="B21" s="27" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C21" s="27" t="s">
         <v>264</v>
       </c>
       <c r="D21" s="49"/>
       <c r="E21" s="54" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F21" s="54" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="G21" s="54" t="s">
         <v>260</v>
       </c>
       <c r="H21" s="54" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="I21" s="54" t="s">
         <v>21</v>
@@ -5445,7 +5449,7 @@
         <v>19.0</v>
       </c>
       <c r="P21" s="31" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q21" s="32">
         <v>19.0</v>
@@ -5463,12 +5467,12 @@
       <c r="X21" s="33">
         <v>19.0</v>
       </c>
-      <c r="Y21" s="46"/>
+      <c r="Y21" s="45"/>
       <c r="Z21" s="28">
         <v>19.0</v>
       </c>
       <c r="AA21" s="28" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AB21" s="28" t="s">
         <v>259</v>
@@ -5479,14 +5483,14 @@
         <v>20.0</v>
       </c>
       <c r="B22" s="25" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C22" s="25" t="s">
         <v>265</v>
       </c>
       <c r="D22" s="40"/>
       <c r="E22" s="25" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F22" s="25" t="s">
         <v>266</v>
@@ -5504,7 +5508,7 @@
         <v>20.0</v>
       </c>
       <c r="P22" s="25" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q22" s="25">
         <v>20.0</v>
@@ -5527,7 +5531,7 @@
         <v>20.0</v>
       </c>
       <c r="AA22" s="25" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AB22" s="25" t="s">
         <v>262</v>
@@ -5545,7 +5549,7 @@
       </c>
       <c r="D23" s="49"/>
       <c r="E23" s="54" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F23" s="59"/>
       <c r="G23" s="59"/>
@@ -5555,7 +5559,7 @@
         <v>21.0</v>
       </c>
       <c r="P23" s="31" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="Q23" s="32">
         <v>21.0</v>
@@ -5573,12 +5577,12 @@
       <c r="X23" s="33">
         <v>21.0</v>
       </c>
-      <c r="Y23" s="46"/>
+      <c r="Y23" s="45"/>
       <c r="Z23" s="28">
         <v>21.0</v>
       </c>
       <c r="AA23" s="28" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="AB23" s="28" t="s">
         <v>264</v>
@@ -5596,7 +5600,7 @@
       </c>
       <c r="D24" s="40"/>
       <c r="E24" s="25" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F24" s="40"/>
       <c r="G24" s="40"/>
@@ -5606,7 +5610,7 @@
         <v>22.0</v>
       </c>
       <c r="P24" s="25" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="Q24" s="25">
         <v>22.0</v>
@@ -5629,7 +5633,7 @@
         <v>22.0</v>
       </c>
       <c r="AA24" s="25" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="AB24" s="25" t="s">
         <v>265</v>
@@ -5643,7 +5647,7 @@
       <c r="C25" s="49"/>
       <c r="D25" s="49"/>
       <c r="E25" s="54" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F25" s="59"/>
       <c r="G25" s="59"/>
@@ -5669,7 +5673,7 @@
       <c r="X25" s="33">
         <v>23.0</v>
       </c>
-      <c r="Y25" s="46"/>
+      <c r="Y25" s="45"/>
       <c r="Z25" s="28">
         <v>23.0</v>
       </c>
@@ -5688,7 +5692,7 @@
       <c r="C26" s="40"/>
       <c r="D26" s="40"/>
       <c r="E26" s="25" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F26" s="40"/>
       <c r="G26" s="40"/>
@@ -5698,7 +5702,7 @@
         <v>24.0</v>
       </c>
       <c r="P26" s="25" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q26" s="25">
         <v>24.0</v>
@@ -5735,7 +5739,7 @@
       <c r="C27" s="49"/>
       <c r="D27" s="49"/>
       <c r="E27" s="54" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F27" s="59"/>
       <c r="G27" s="59"/>
@@ -5763,7 +5767,7 @@
       <c r="X27" s="33">
         <v>25.0</v>
       </c>
-      <c r="Y27" s="46"/>
+      <c r="Y27" s="45"/>
       <c r="Z27" s="28">
         <v>25.0</v>
       </c>
@@ -5782,7 +5786,7 @@
       <c r="C28" s="40"/>
       <c r="D28" s="40"/>
       <c r="E28" s="25" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F28" s="40"/>
       <c r="G28" s="40"/>
@@ -5829,7 +5833,7 @@
       <c r="C29" s="49"/>
       <c r="D29" s="49"/>
       <c r="E29" s="54" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F29" s="59"/>
       <c r="G29" s="59"/>
@@ -5857,12 +5861,12 @@
       <c r="X29" s="33">
         <v>27.0</v>
       </c>
-      <c r="Y29" s="46"/>
+      <c r="Y29" s="45"/>
       <c r="Z29" s="28">
         <v>27.0</v>
       </c>
-      <c r="AA29" s="45"/>
-      <c r="AB29" s="45"/>
+      <c r="AA29" s="47"/>
+      <c r="AB29" s="47"/>
     </row>
     <row r="30">
       <c r="A30" s="25">
@@ -5878,7 +5882,7 @@
         <v>26</v>
       </c>
       <c r="E30" s="25" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F30" s="42"/>
       <c r="G30" s="42"/>
@@ -5935,7 +5939,7 @@
         <v>29.0</v>
       </c>
       <c r="P31" s="31" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q31" s="32">
         <v>29.0</v>
@@ -5953,19 +5957,19 @@
       <c r="X31" s="33">
         <v>29.0</v>
       </c>
-      <c r="Y31" s="46"/>
+      <c r="Y31" s="45"/>
       <c r="Z31" s="28">
         <v>29.0</v>
       </c>
-      <c r="AA31" s="45"/>
-      <c r="AB31" s="45"/>
+      <c r="AA31" s="47"/>
+      <c r="AB31" s="47"/>
     </row>
     <row r="32">
       <c r="A32" s="25">
         <v>30.0</v>
       </c>
       <c r="B32" s="25" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C32" s="25" t="s">
         <v>272</v>
@@ -5982,7 +5986,7 @@
         <v>30.0</v>
       </c>
       <c r="P32" s="25" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q32" s="25">
         <v>30.0</v>
@@ -6012,7 +6016,7 @@
         <v>31.0</v>
       </c>
       <c r="B33" s="27" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C33" s="27" t="s">
         <v>273</v>
@@ -6029,7 +6033,7 @@
         <v>31.0</v>
       </c>
       <c r="P33" s="31" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="Q33" s="32">
         <v>31.0</v>
@@ -6047,7 +6051,7 @@
       <c r="X33" s="33">
         <v>31.0</v>
       </c>
-      <c r="Y33" s="46"/>
+      <c r="Y33" s="45"/>
       <c r="Z33" s="28">
         <v>31.0</v>
       </c>
@@ -6059,7 +6063,7 @@
         <v>32.0</v>
       </c>
       <c r="B34" s="25" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C34" s="25" t="s">
         <v>274</v>
@@ -6076,7 +6080,7 @@
         <v>32.0</v>
       </c>
       <c r="P34" s="25" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="Q34" s="25">
         <v>32.0</v>
@@ -6106,7 +6110,7 @@
         <v>33.0</v>
       </c>
       <c r="B35" s="27" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C35" s="27" t="s">
         <v>275</v>
@@ -6123,7 +6127,7 @@
         <v>33.0</v>
       </c>
       <c r="P35" s="31" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="Q35" s="32">
         <v>33.0</v>
@@ -6139,15 +6143,15 @@
       <c r="Z35" s="28">
         <v>33.0</v>
       </c>
-      <c r="AA35" s="45"/>
-      <c r="AB35" s="45"/>
+      <c r="AA35" s="47"/>
+      <c r="AB35" s="47"/>
     </row>
     <row r="36">
       <c r="A36" s="25">
         <v>34.0</v>
       </c>
       <c r="B36" s="25" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="C36" s="25" t="s">
         <v>276</v>
@@ -6164,7 +6168,7 @@
         <v>34.0</v>
       </c>
       <c r="P36" s="25" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="Q36" s="25">
         <v>34.0</v>
@@ -6191,7 +6195,7 @@
         <v>35.0</v>
       </c>
       <c r="B37" s="27" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C37" s="27" t="s">
         <v>278</v>
@@ -6208,7 +6212,7 @@
         <v>35.0</v>
       </c>
       <c r="P37" s="31" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="Q37" s="32">
         <v>35.0</v>
@@ -6224,15 +6228,15 @@
       <c r="Z37" s="28">
         <v>35.0</v>
       </c>
-      <c r="AA37" s="45"/>
-      <c r="AB37" s="45"/>
+      <c r="AA37" s="47"/>
+      <c r="AB37" s="47"/>
     </row>
     <row r="38">
       <c r="A38" s="25">
         <v>36.0</v>
       </c>
       <c r="B38" s="25" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C38" s="25" t="s">
         <v>279</v>
@@ -6249,7 +6253,7 @@
         <v>36.0</v>
       </c>
       <c r="P38" s="25" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="Q38" s="25">
         <v>36.0</v>
@@ -6273,7 +6277,7 @@
         <v>37.0</v>
       </c>
       <c r="B39" s="27" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C39" s="27" t="s">
         <v>280</v>
@@ -6290,7 +6294,7 @@
         <v>37.0</v>
       </c>
       <c r="P39" s="31" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="Q39" s="32">
         <v>37.0</v>
@@ -6306,15 +6310,15 @@
       <c r="Z39" s="28">
         <v>37.0</v>
       </c>
-      <c r="AA39" s="45"/>
-      <c r="AB39" s="45"/>
+      <c r="AA39" s="47"/>
+      <c r="AB39" s="47"/>
     </row>
     <row r="40">
       <c r="A40" s="25">
         <v>38.0</v>
       </c>
       <c r="B40" s="25" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C40" s="25" t="s">
         <v>281</v>
@@ -6331,7 +6335,7 @@
         <v>38.0</v>
       </c>
       <c r="P40" s="25" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="Q40" s="25">
         <v>38.0</v>
@@ -6342,7 +6346,7 @@
         <v>38.0</v>
       </c>
       <c r="Y40" s="25" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Z40" s="25">
         <v>38.0</v>
@@ -6355,7 +6359,7 @@
         <v>39.0</v>
       </c>
       <c r="B41" s="27" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C41" s="27" t="s">
         <v>282</v>
@@ -6372,7 +6376,7 @@
         <v>39.0</v>
       </c>
       <c r="P41" s="31" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="Q41" s="32">
         <v>39.0</v>
@@ -6383,13 +6387,13 @@
         <v>39.0</v>
       </c>
       <c r="Y41" s="33" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="Z41" s="28">
         <v>39.0</v>
       </c>
-      <c r="AA41" s="45"/>
-      <c r="AB41" s="45"/>
+      <c r="AA41" s="47"/>
+      <c r="AB41" s="47"/>
     </row>
     <row r="42">
       <c r="A42" s="25">
@@ -6399,7 +6403,7 @@
         <v>74</v>
       </c>
       <c r="C42" s="25" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D42" s="25" t="s">
         <v>21</v>
@@ -6413,7 +6417,7 @@
         <v>40.0</v>
       </c>
       <c r="P42" s="25" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="Q42" s="25">
         <v>40.0</v>
@@ -6424,7 +6428,7 @@
         <v>40.0</v>
       </c>
       <c r="Y42" s="25" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="Z42" s="25">
         <v>40.0</v>
@@ -6434,7 +6438,7 @@
     </row>
     <row r="43">
       <c r="A43" s="27" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B43" s="27"/>
       <c r="C43" s="27"/>
@@ -6443,7 +6447,7 @@
         <v>41.0</v>
       </c>
       <c r="P43" s="31" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Q43" s="32">
         <v>41.0</v>
@@ -6459,12 +6463,12 @@
       <c r="Z43" s="28">
         <v>41.0</v>
       </c>
-      <c r="AA43" s="45"/>
-      <c r="AB43" s="45"/>
+      <c r="AA43" s="47"/>
+      <c r="AB43" s="47"/>
     </row>
     <row r="44">
       <c r="A44" s="25" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B44" s="40"/>
       <c r="C44" s="40"/>
@@ -6473,7 +6477,7 @@
         <v>42.0</v>
       </c>
       <c r="P44" s="25" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Q44" s="25">
         <v>42.0</v>
@@ -6491,7 +6495,7 @@
     </row>
     <row r="45">
       <c r="A45" s="27" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B45" s="49"/>
       <c r="C45" s="49"/>
@@ -6500,7 +6504,7 @@
         <v>43.0</v>
       </c>
       <c r="P45" s="31" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q45" s="32">
         <v>43.0</v>
@@ -6511,17 +6515,17 @@
         <v>43.0</v>
       </c>
       <c r="Y45" s="33" t="s">
-        <v>241</v>
+        <v>30</v>
       </c>
       <c r="Z45" s="28">
         <v>43.0</v>
       </c>
-      <c r="AA45" s="45"/>
-      <c r="AB45" s="45"/>
+      <c r="AA45" s="47"/>
+      <c r="AB45" s="47"/>
     </row>
     <row r="46">
       <c r="A46" s="25" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B46" s="40"/>
       <c r="C46" s="40"/>
@@ -6530,7 +6534,7 @@
         <v>44.0</v>
       </c>
       <c r="P46" s="25" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q46" s="25">
         <v>44.0</v>
@@ -6541,7 +6545,7 @@
         <v>44.0</v>
       </c>
       <c r="Y46" s="25" t="s">
-        <v>108</v>
+        <v>44</v>
       </c>
       <c r="Z46" s="25">
         <v>44.0</v>
@@ -6551,7 +6555,7 @@
     </row>
     <row r="47">
       <c r="A47" s="27" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B47" s="49"/>
       <c r="C47" s="49"/>
@@ -6560,7 +6564,7 @@
         <v>45.0</v>
       </c>
       <c r="P47" s="31" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q47" s="32">
         <v>45.0</v>
@@ -6571,17 +6575,17 @@
         <v>45.0</v>
       </c>
       <c r="Y47" s="33" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="Z47" s="28">
         <v>45.0</v>
       </c>
-      <c r="AA47" s="45"/>
-      <c r="AB47" s="45"/>
+      <c r="AA47" s="47"/>
+      <c r="AB47" s="47"/>
     </row>
     <row r="48">
       <c r="A48" s="25" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B48" s="25" t="s">
         <v>283</v>
@@ -6596,7 +6600,7 @@
         <v>46.0</v>
       </c>
       <c r="P48" s="25" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q48" s="25">
         <v>46.0</v>
@@ -6607,7 +6611,7 @@
         <v>46.0</v>
       </c>
       <c r="Y48" s="25" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="Z48" s="25">
         <v>46.0</v>
@@ -6617,10 +6621,10 @@
     </row>
     <row r="49">
       <c r="A49" s="27" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B49" s="27" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C49" s="27" t="s">
         <v>285</v>
@@ -6637,7 +6641,7 @@
         <v>47.0</v>
       </c>
       <c r="P49" s="31" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q49" s="32">
         <v>47.0</v>
@@ -6648,20 +6652,20 @@
         <v>47.0</v>
       </c>
       <c r="Y49" s="33" t="s">
-        <v>126</v>
+        <v>75</v>
       </c>
       <c r="Z49" s="28">
         <v>47.0</v>
       </c>
-      <c r="AA49" s="45"/>
-      <c r="AB49" s="45"/>
+      <c r="AA49" s="47"/>
+      <c r="AB49" s="47"/>
     </row>
     <row r="50">
       <c r="A50" s="25" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B50" s="25" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C50" s="25" t="s">
         <v>286</v>
@@ -6678,7 +6682,7 @@
         <v>48.0</v>
       </c>
       <c r="P50" s="25" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q50" s="25">
         <v>48.0</v>
@@ -6689,7 +6693,7 @@
         <v>48.0</v>
       </c>
       <c r="Y50" s="25" t="s">
-        <v>132</v>
+        <v>82</v>
       </c>
       <c r="Z50" s="25">
         <v>48.0</v>
@@ -6702,20 +6706,20 @@
         <v>49.0</v>
       </c>
       <c r="Y51" s="33" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z51" s="28">
         <v>49.0</v>
       </c>
-      <c r="AA51" s="45"/>
-      <c r="AB51" s="45"/>
+      <c r="AA51" s="47"/>
+      <c r="AB51" s="47"/>
     </row>
     <row r="52">
       <c r="X52" s="25">
         <v>50.0</v>
       </c>
       <c r="Y52" s="25" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="Z52" s="25">
         <v>50.0</v>
@@ -6728,20 +6732,20 @@
         <v>51.0</v>
       </c>
       <c r="Y53" s="33" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Z53" s="28">
         <v>51.0</v>
       </c>
-      <c r="AA53" s="45"/>
-      <c r="AB53" s="45"/>
+      <c r="AA53" s="47"/>
+      <c r="AB53" s="47"/>
     </row>
     <row r="54">
       <c r="X54" s="25">
         <v>52.0</v>
       </c>
       <c r="Y54" s="25" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Z54" s="25">
         <v>52.0</v>
@@ -6754,20 +6758,20 @@
         <v>53.0</v>
       </c>
       <c r="Y55" s="33" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="Z55" s="28">
         <v>53.0</v>
       </c>
-      <c r="AA55" s="45"/>
-      <c r="AB55" s="45"/>
+      <c r="AA55" s="47"/>
+      <c r="AB55" s="47"/>
     </row>
     <row r="56">
       <c r="X56" s="25">
         <v>54.0</v>
       </c>
       <c r="Y56" s="25" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="Z56" s="25">
         <v>54.0</v>
@@ -6785,8 +6789,8 @@
       <c r="Z57" s="28">
         <v>55.0</v>
       </c>
-      <c r="AA57" s="45"/>
-      <c r="AB57" s="45"/>
+      <c r="AA57" s="47"/>
+      <c r="AB57" s="47"/>
     </row>
     <row r="58">
       <c r="X58" s="25">
@@ -6811,8 +6815,8 @@
       <c r="Z59" s="28">
         <v>57.0</v>
       </c>
-      <c r="AA59" s="45"/>
-      <c r="AB59" s="45"/>
+      <c r="AA59" s="47"/>
+      <c r="AB59" s="47"/>
     </row>
     <row r="60">
       <c r="X60" s="25">
@@ -6831,12 +6835,12 @@
       <c r="X61" s="33">
         <v>59.0</v>
       </c>
-      <c r="Y61" s="46"/>
+      <c r="Y61" s="45"/>
       <c r="Z61" s="28">
         <v>59.0</v>
       </c>
-      <c r="AA61" s="45"/>
-      <c r="AB61" s="45"/>
+      <c r="AA61" s="47"/>
+      <c r="AB61" s="47"/>
     </row>
     <row r="62">
       <c r="X62" s="25">
@@ -6853,12 +6857,12 @@
       <c r="X63" s="33">
         <v>61.0</v>
       </c>
-      <c r="Y63" s="46"/>
+      <c r="Y63" s="45"/>
       <c r="Z63" s="28">
         <v>61.0</v>
       </c>
-      <c r="AA63" s="45"/>
-      <c r="AB63" s="45"/>
+      <c r="AA63" s="47"/>
+      <c r="AB63" s="47"/>
     </row>
     <row r="64">
       <c r="X64" s="25">
@@ -6875,12 +6879,12 @@
       <c r="X65" s="33">
         <v>63.0</v>
       </c>
-      <c r="Y65" s="46"/>
+      <c r="Y65" s="45"/>
       <c r="Z65" s="28">
         <v>63.0</v>
       </c>
-      <c r="AA65" s="45"/>
-      <c r="AB65" s="45"/>
+      <c r="AA65" s="47"/>
+      <c r="AB65" s="47"/>
     </row>
     <row r="66">
       <c r="X66" s="25">
@@ -6915,6 +6919,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
+    <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -7000,7 +7005,7 @@
         <v>1.0</v>
       </c>
       <c r="D3" s="67" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="G3" s="32">
         <v>1.0</v>
@@ -7012,19 +7017,19 @@
         <v>1.0</v>
       </c>
       <c r="J3" s="68" t="s">
-        <v>291</v>
+        <v>31</v>
       </c>
       <c r="M3" s="33">
         <v>1.0</v>
       </c>
       <c r="N3" s="33" t="s">
-        <v>29</v>
+        <v>98</v>
       </c>
       <c r="O3" s="33">
         <v>1.0</v>
       </c>
       <c r="P3" s="33" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="4">
@@ -7038,7 +7043,7 @@
         <v>2.0</v>
       </c>
       <c r="D4" s="67" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G4" s="25">
         <v>2.0</v>
@@ -7050,19 +7055,19 @@
         <v>2.0</v>
       </c>
       <c r="J4" s="39" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="M4" s="25">
         <v>2.0</v>
       </c>
       <c r="N4" s="25" t="s">
-        <v>43</v>
+        <v>105</v>
       </c>
       <c r="O4" s="25">
         <v>2.0</v>
       </c>
       <c r="P4" s="25" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="5">
@@ -7075,7 +7080,9 @@
       <c r="C5" s="67">
         <v>3.0</v>
       </c>
-      <c r="D5" s="69"/>
+      <c r="D5" s="67" t="s">
+        <v>291</v>
+      </c>
       <c r="G5" s="32">
         <v>3.0</v>
       </c>
@@ -7085,18 +7092,20 @@
       <c r="I5" s="32">
         <v>3.0</v>
       </c>
-      <c r="J5" s="70" t="s">
-        <v>72</v>
+      <c r="J5" s="68" t="s">
+        <v>56</v>
       </c>
       <c r="M5" s="33">
         <v>3.0</v>
       </c>
-      <c r="N5" s="33"/>
+      <c r="N5" s="33" t="s">
+        <v>29</v>
+      </c>
       <c r="O5" s="33">
         <v>3.0</v>
       </c>
       <c r="P5" s="33" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="6">
@@ -7106,10 +7115,12 @@
       <c r="B6" s="67" t="s">
         <v>59</v>
       </c>
-      <c r="C6" s="71">
+      <c r="C6" s="69">
         <v>4.0</v>
       </c>
-      <c r="D6" s="69"/>
+      <c r="D6" s="67" t="s">
+        <v>292</v>
+      </c>
       <c r="G6" s="25">
         <v>4.0</v>
       </c>
@@ -7119,16 +7130,20 @@
       <c r="I6" s="25">
         <v>4.0</v>
       </c>
-      <c r="J6" s="40"/>
+      <c r="J6" s="25" t="s">
+        <v>67</v>
+      </c>
       <c r="M6" s="25">
         <v>4.0</v>
       </c>
-      <c r="N6" s="25"/>
+      <c r="N6" s="25" t="s">
+        <v>43</v>
+      </c>
       <c r="O6" s="25">
         <v>4.0</v>
       </c>
       <c r="P6" s="25" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="7">
@@ -7141,7 +7156,7 @@
       <c r="C7" s="67">
         <v>5.0</v>
       </c>
-      <c r="D7" s="69"/>
+      <c r="D7" s="70"/>
       <c r="G7" s="32">
         <v>5.0</v>
       </c>
@@ -7151,7 +7166,9 @@
       <c r="I7" s="32">
         <v>5.0</v>
       </c>
-      <c r="J7" s="56"/>
+      <c r="J7" s="32" t="s">
+        <v>76</v>
+      </c>
       <c r="M7" s="33">
         <v>5.0</v>
       </c>
@@ -7159,29 +7176,31 @@
       <c r="O7" s="33">
         <v>5.0</v>
       </c>
-      <c r="P7" s="46"/>
+      <c r="P7" s="45"/>
     </row>
     <row r="8">
       <c r="A8" s="67">
         <v>6.0</v>
       </c>
       <c r="B8" s="67" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C8" s="67">
         <v>6.0</v>
       </c>
-      <c r="D8" s="69"/>
+      <c r="D8" s="70"/>
       <c r="G8" s="25">
         <v>6.0</v>
       </c>
       <c r="H8" s="25" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I8" s="25">
         <v>6.0</v>
       </c>
-      <c r="J8" s="40"/>
+      <c r="J8" s="25" t="s">
+        <v>83</v>
+      </c>
       <c r="M8" s="25">
         <v>6.0</v>
       </c>
@@ -7196,18 +7215,20 @@
         <v>7.0</v>
       </c>
       <c r="B9" s="67" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C9" s="67">
         <v>7.0</v>
       </c>
       <c r="D9" s="67" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G9" s="32">
         <v>7.0</v>
       </c>
-      <c r="H9" s="56"/>
+      <c r="H9" s="32" t="s">
+        <v>76</v>
+      </c>
       <c r="I9" s="32">
         <v>7.0</v>
       </c>
@@ -7226,18 +7247,20 @@
         <v>8.0</v>
       </c>
       <c r="B10" s="67" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C10" s="67">
         <v>8.0</v>
       </c>
       <c r="D10" s="67" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="G10" s="25">
         <v>8.0</v>
       </c>
-      <c r="H10" s="40"/>
+      <c r="H10" s="25" t="s">
+        <v>83</v>
+      </c>
       <c r="I10" s="25">
         <v>8.0</v>
       </c>
@@ -7261,79 +7284,79 @@
         <v>39</v>
       </c>
       <c r="C11" s="67" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D11" s="67" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G11" s="67">
         <v>9.0</v>
       </c>
-      <c r="H11" s="69"/>
+      <c r="H11" s="70"/>
       <c r="M11" s="33" t="s">
-        <v>193</v>
-      </c>
-      <c r="N11" s="72"/>
+        <v>194</v>
+      </c>
+      <c r="N11" s="71"/>
       <c r="O11" s="33" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="P11" s="33" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="67">
         <v>10.0</v>
       </c>
-      <c r="B12" s="69"/>
+      <c r="B12" s="70"/>
       <c r="G12" s="67">
         <v>10.0</v>
       </c>
-      <c r="H12" s="69"/>
+      <c r="H12" s="70"/>
       <c r="M12" s="25" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="N12" s="42"/>
       <c r="O12" s="25" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="P12" s="25" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="67">
         <v>11.0</v>
       </c>
-      <c r="B13" s="69"/>
+      <c r="B13" s="70"/>
       <c r="G13" s="67">
         <v>11.0</v>
       </c>
-      <c r="H13" s="69"/>
+      <c r="H13" s="70"/>
       <c r="M13" s="33" t="s">
-        <v>201</v>
-      </c>
-      <c r="N13" s="72"/>
+        <v>202</v>
+      </c>
+      <c r="N13" s="71"/>
       <c r="O13" s="33" t="s">
-        <v>201</v>
-      </c>
-      <c r="P13" s="46"/>
+        <v>202</v>
+      </c>
+      <c r="P13" s="45"/>
     </row>
     <row r="14">
       <c r="A14" s="67">
         <v>12.0</v>
       </c>
-      <c r="B14" s="69"/>
+      <c r="B14" s="70"/>
       <c r="G14" s="67">
         <v>12.0</v>
       </c>
-      <c r="H14" s="69"/>
+      <c r="H14" s="70"/>
       <c r="M14" s="25" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="N14" s="42"/>
       <c r="O14" s="25" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="P14" s="40"/>
     </row>
@@ -7341,35 +7364,35 @@
       <c r="A15" s="67">
         <v>13.0</v>
       </c>
-      <c r="B15" s="69"/>
+      <c r="B15" s="70"/>
       <c r="G15" s="67">
         <v>13.0</v>
       </c>
-      <c r="H15" s="69"/>
+      <c r="H15" s="70"/>
       <c r="M15" s="33" t="s">
-        <v>205</v>
-      </c>
-      <c r="N15" s="72"/>
+        <v>206</v>
+      </c>
+      <c r="N15" s="71"/>
       <c r="O15" s="33" t="s">
-        <v>205</v>
-      </c>
-      <c r="P15" s="46"/>
+        <v>206</v>
+      </c>
+      <c r="P15" s="45"/>
     </row>
     <row r="16">
       <c r="A16" s="67">
         <v>14.0</v>
       </c>
-      <c r="B16" s="69"/>
+      <c r="B16" s="70"/>
       <c r="G16" s="67">
         <v>14.0</v>
       </c>
-      <c r="H16" s="69"/>
+      <c r="H16" s="70"/>
       <c r="M16" s="25" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="N16" s="42"/>
       <c r="O16" s="25" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="P16" s="40"/>
     </row>
@@ -7377,39 +7400,39 @@
       <c r="A17" s="67">
         <v>15.0</v>
       </c>
-      <c r="B17" s="69"/>
+      <c r="B17" s="70"/>
       <c r="G17" s="67">
         <v>15.0</v>
       </c>
-      <c r="H17" s="69"/>
+      <c r="H17" s="70"/>
       <c r="M17" s="33" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="N17" s="33" t="s">
         <v>250</v>
       </c>
       <c r="O17" s="33" t="s">
-        <v>210</v>
-      </c>
-      <c r="P17" s="46"/>
+        <v>211</v>
+      </c>
+      <c r="P17" s="45"/>
     </row>
     <row r="18">
       <c r="A18" s="67">
         <v>16.0</v>
       </c>
-      <c r="B18" s="69"/>
+      <c r="B18" s="70"/>
       <c r="G18" s="67">
         <v>16.0</v>
       </c>
-      <c r="H18" s="69"/>
+      <c r="H18" s="70"/>
       <c r="M18" s="25" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="N18" s="25" t="s">
         <v>255</v>
       </c>
       <c r="O18" s="25" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="P18" s="40"/>
     </row>
@@ -7417,26 +7440,26 @@
       <c r="A19" s="67">
         <v>17.0</v>
       </c>
-      <c r="B19" s="69"/>
+      <c r="B19" s="70"/>
     </row>
     <row r="20">
       <c r="A20" s="67">
         <v>18.0</v>
       </c>
-      <c r="B20" s="69"/>
+      <c r="B20" s="70"/>
     </row>
     <row r="21">
       <c r="A21" s="67">
         <v>19.0</v>
       </c>
-      <c r="B21" s="69"/>
+      <c r="B21" s="70"/>
     </row>
     <row r="22">
       <c r="A22" s="67">
         <v>20.0</v>
       </c>
       <c r="B22" s="67" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="23">
@@ -7444,7 +7467,7 @@
         <v>21.0</v>
       </c>
       <c r="B23" s="67" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="24">
@@ -7452,7 +7475,7 @@
         <v>22.0</v>
       </c>
       <c r="B24" s="67" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="25">
@@ -7460,7 +7483,7 @@
         <v>23.0</v>
       </c>
       <c r="B25" s="67" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="26">
@@ -7468,7 +7491,7 @@
         <v>24.0</v>
       </c>
       <c r="B26" s="67" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -7477,6 +7500,9 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="M1:P1"/>
   </mergeCells>
+  <printOptions gridLines="1" horizontalCentered="1"/>
+  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup fitToHeight="0" paperSize="9" cellComments="atEnd" orientation="landscape" pageOrder="overThenDown"/>
   <drawing r:id="rId1"/>
   <tableParts count="3">
     <tablePart r:id="rId5"/>
